--- a/20_営業/07_会計/BR100/ERP_T_BR100_CFO_TAX_08_税金条件セットの管理.xlsx
+++ b/20_営業/07_会計/BR100/ERP_T_BR100_CFO_TAX_08_税金条件セットの管理.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\89_SaaS対応\20_ERPCloud導入\20_実装フェーズ\10_成果物\01_セットアップ定義書\10_コンサル\TAX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Itoenfile\system\30.SCSK\92_分社化\10_設計フェーズ\10_成果物\【触らないでください】40_その他\ERP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="2" r:id="rId1"/>
-    <sheet name="TAX_8" sheetId="1" r:id="rId2"/>
+    <sheet name="手順" sheetId="4" r:id="rId2"/>
+    <sheet name="TAX_8" sheetId="1" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
@@ -43,6 +43,7 @@
     <externalReference r:id="rId27"/>
     <externalReference r:id="rId28"/>
     <externalReference r:id="rId29"/>
+    <externalReference r:id="rId30"/>
   </externalReferences>
   <definedNames>
     <definedName name="_1900_01_09">#REF!</definedName>
@@ -412,11 +413,12 @@
     <definedName name="_1998_12_29">#REF!</definedName>
     <definedName name="_1998_12_30">#REF!</definedName>
     <definedName name="_1998_12_31">#REF!</definedName>
-    <definedName name="_Fill" hidden="1">[2]責準明細表!#REF!</definedName>
-    <definedName name="_LOV1">[3]Sheet2!$B$2:$B$5</definedName>
-    <definedName name="_LOV2">[3]Sheet2!$B$8:$B$11</definedName>
-    <definedName name="_LOV3">[3]Sheet2!$B$13:$B$20</definedName>
-    <definedName name="_LOV4">[3]Sheet2!$B$23:$B$31</definedName>
+    <definedName name="_Fill" hidden="1">[1]責準明細表!#REF!</definedName>
+    <definedName name="_FND2">#REF!</definedName>
+    <definedName name="_LOV1">[2]Sheet2!$B$2:$B$5</definedName>
+    <definedName name="_LOV2">[2]Sheet2!$B$8:$B$11</definedName>
+    <definedName name="_LOV3">[2]Sheet2!$B$13:$B$20</definedName>
+    <definedName name="_LOV4">[2]Sheet2!$B$23:$B$31</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
     <definedName name="_Order2" hidden="1">255</definedName>
     <definedName name="_Regression_X" hidden="1">#REF!</definedName>
@@ -485,12 +487,13 @@
     <definedName name="⑨成項目名">#REF!</definedName>
     <definedName name="⑨説明">#REF!</definedName>
     <definedName name="⑨入力">#REF!</definedName>
-    <definedName name="a">'[4]６（過去）'!#REF!</definedName>
+    <definedName name="a">'[3]６（過去）'!#REF!</definedName>
     <definedName name="aaa">#REF!</definedName>
+    <definedName name="AAAAA">#REF!</definedName>
     <definedName name="ACCOUNTEDPERIODTYPE1">#REF!</definedName>
     <definedName name="ACCOUNTSEGMENT1">#REF!</definedName>
-    <definedName name="AccountType">'[5]LOV''s'!$K$2:$K$37</definedName>
-    <definedName name="AccountTypes">[6]LOV!$E$6:$E$8</definedName>
+    <definedName name="AccountType">'[4]LOV''s'!$K$2:$K$37</definedName>
+    <definedName name="AccountTypes">[5]LOV!$E$6:$E$8</definedName>
     <definedName name="Agent_per_hour">#REF!</definedName>
     <definedName name="aplcode">#REF!</definedName>
     <definedName name="aplname">#REF!</definedName>
@@ -500,7 +503,7 @@
     <definedName name="AX" hidden="1">#REF!</definedName>
     <definedName name="AZ" hidden="1">#REF!</definedName>
     <definedName name="b">#REF!</definedName>
-    <definedName name="BankBranchTypes">[6]LOV!$K$2:$K$5</definedName>
+    <definedName name="BankBranchTypes">[5]LOV!$K$2:$K$5</definedName>
     <definedName name="BB">#REF!</definedName>
     <definedName name="BUDGETCURRENCYCODE1">#REF!</definedName>
     <definedName name="BUDGETDECIMALPLACES1">#REF!</definedName>
@@ -525,27 +528,27 @@
     <definedName name="BUDGETTITLEFORECOLOUR1">#REF!</definedName>
     <definedName name="BUDGETVALUESWIDTH1">#REF!</definedName>
     <definedName name="BUDGETVERSIONID1">#REF!</definedName>
-    <definedName name="CARGO">[7]!CARGO</definedName>
+    <definedName name="CARGO">[6]!CARGO</definedName>
     <definedName name="CC">#REF!</definedName>
     <definedName name="CHARTOFACCOUNTSID1">#REF!</definedName>
     <definedName name="Checkpoint_Preparation_in_Weeks">#REF!</definedName>
     <definedName name="ck2.">#REF!</definedName>
-    <definedName name="clarify">[8]値!$J$2:$J$3</definedName>
+    <definedName name="clarify">[7]値!$J$2:$J$3</definedName>
     <definedName name="ColumnAttributes1">#REF!</definedName>
     <definedName name="ColumnHeadings1">#REF!</definedName>
-    <definedName name="Command_Click">[9]!Command_Click</definedName>
+    <definedName name="Command_Click">[8]!Command_Click</definedName>
     <definedName name="Complex_Reports">#REF!</definedName>
     <definedName name="Complex_Screens">#REF!</definedName>
     <definedName name="Connectivity">#REF!</definedName>
     <definedName name="CONNECTSTRING1">#REF!</definedName>
     <definedName name="Contingency">#REF!</definedName>
-    <definedName name="Countries">[6]LOV!$A$2:$A$253</definedName>
+    <definedName name="Countries">[5]LOV!$A$2:$A$253</definedName>
     <definedName name="CREATEGRAPH1">#REF!</definedName>
     <definedName name="CREATESUMMARYJNLS1">#REF!</definedName>
     <definedName name="_xlnm.Criteria">#REF!</definedName>
     <definedName name="CRITERIACOLUMN1">#REF!</definedName>
     <definedName name="CRP3に無いデータを抽出">#REF!</definedName>
-    <definedName name="CurrencyCodes">[6]LOV!$I$2:$I$227</definedName>
+    <definedName name="CurrencyCodes">[5]LOV!$I$2:$I$227</definedName>
     <definedName name="D">#REF!</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
     <definedName name="DBNAME1">#REF!</definedName>
@@ -556,7 +559,8 @@
     <definedName name="DDDDD">#REF!</definedName>
     <definedName name="DELETELOGICTYPE1">#REF!</definedName>
     <definedName name="Documentation_in_Weeks_for_whole_team">#REF!</definedName>
-    <definedName name="DSP手段">[8]値!#REF!</definedName>
+    <definedName name="DOM">[9]ドメイン定義書!$B$10:$AD$65500</definedName>
+    <definedName name="DSP手段">[7]値!#REF!</definedName>
     <definedName name="DSP先一覧">[10]値!$A$40:$A$53</definedName>
     <definedName name="Empowerment_in_Weeks_for_whole_team">#REF!</definedName>
     <definedName name="ENDPERIODNAME1">#REF!</definedName>
@@ -607,6 +611,7 @@
     <definedName name="FIELDNAMECOLUMN1">#REF!</definedName>
     <definedName name="FIELDNAMEROW1">#REF!</definedName>
     <definedName name="FIRSTDATAROW1">#REF!</definedName>
+    <definedName name="FND">#REF!</definedName>
     <definedName name="FNDNAM1">#REF!</definedName>
     <definedName name="FNDUSERID1">#REF!</definedName>
     <definedName name="FUNCTIONALCURRENCY1">#REF!</definedName>
@@ -648,6 +653,7 @@
     <definedName name="HTML1_8" hidden="1">"7/6/99"</definedName>
     <definedName name="HTML1_9" hidden="1">"OBM Program Office"</definedName>
     <definedName name="HTMLCount" hidden="1">1</definedName>
+    <definedName name="i" hidden="1">#REF!</definedName>
     <definedName name="IBM">#REF!</definedName>
     <definedName name="IMPORTDFF1">#REF!</definedName>
     <definedName name="Integration">#REF!</definedName>
@@ -675,7 +681,7 @@
     <definedName name="Medium_Reports">#REF!</definedName>
     <definedName name="Medium_Screens">#REF!</definedName>
     <definedName name="Module.s_Index">[0]!Module.s_Index</definedName>
-    <definedName name="Module1.MOTOR">[7]!Module1.MOTOR</definedName>
+    <definedName name="Module1.MOTOR">[6]!Module1.MOTOR</definedName>
     <definedName name="MOTOR">[15]!MOTOR</definedName>
     <definedName name="NameJPN">"テキスト 116"</definedName>
     <definedName name="NOOFFFSEGMENTS1">#REF!</definedName>
@@ -815,7 +821,8 @@
     <definedName name="Year1_Calls_Month">'[17]General Assumptions'!$D$22</definedName>
     <definedName name="Year2_call_month">'[17]General Assumptions'!$D$24</definedName>
     <definedName name="Year3_call_month">'[17]General Assumptions'!$D$26</definedName>
-    <definedName name="YesNo">[6]LOV!$E$2:$E$3</definedName>
+    <definedName name="YesNo">[5]LOV!$E$2:$E$3</definedName>
+    <definedName name="Z_B37F8F0F_A298_466E_8C95_00616192A0F5_.wvu.FilterData" hidden="1">#REF!</definedName>
     <definedName name="ｚｚ１">#REF!</definedName>
     <definedName name="あ" hidden="1">#REF!</definedName>
     <definedName name="あｓｆ">[19]Sheet2!$B$8:$B$11</definedName>
@@ -838,19 +845,19 @@
     <definedName name="ち">#REF!</definedName>
     <definedName name="チーム名">#REF!</definedName>
     <definedName name="データ名">#REF!</definedName>
-    <definedName name="デスク">[8]値!$H$2:$H$3</definedName>
+    <definedName name="デスク">[7]値!$H$2:$H$3</definedName>
     <definedName name="デスク一覧">[10]値!$A$3:$A$7</definedName>
     <definedName name="と">#REF!</definedName>
-    <definedName name="トリガー">[8]値!$B$2:$B$5</definedName>
-    <definedName name="トリガー媒体">[8]値!$C$2:$C$8</definedName>
+    <definedName name="トリガー">[7]値!$B$2:$B$5</definedName>
+    <definedName name="トリガー媒体">[7]値!$C$2:$C$8</definedName>
     <definedName name="ペースト用">[22]パラメータ!#REF!</definedName>
     <definedName name="ま">[23]部支店・事務所!$D$2:$D$69</definedName>
     <definedName name="リンク先セル色">[22]パラメータ!#REF!</definedName>
     <definedName name="安藤" hidden="1">#REF!</definedName>
-    <definedName name="案件種別">[8]値!$A$2:$A$7</definedName>
+    <definedName name="案件種別">[7]値!$A$2:$A$7</definedName>
     <definedName name="案件名">#REF!</definedName>
-    <definedName name="依頼手段">[8]値!$G$2:$G$10</definedName>
-    <definedName name="依頼先">[8]値!$I$2:$I$12</definedName>
+    <definedName name="依頼手段">[7]値!$G$2:$G$10</definedName>
+    <definedName name="依頼先">[7]値!$I$2:$I$12</definedName>
     <definedName name="会社名">#REF!</definedName>
     <definedName name="開発_テストシステムHW合計">#REF!</definedName>
     <definedName name="開発単位">#REF!</definedName>
@@ -886,7 +893,7 @@
     <definedName name="索引6">#REF!</definedName>
     <definedName name="索引7">#REF!</definedName>
     <definedName name="索引P">#REF!</definedName>
-    <definedName name="仕訳ソース">'[4]６（過去）'!#REF!</definedName>
+    <definedName name="仕訳ソース">'[3]６（過去）'!#REF!</definedName>
     <definedName name="仕様書" hidden="1">#REF!</definedName>
     <definedName name="実体候補">#REF!</definedName>
     <definedName name="実体候補２">#REF!</definedName>
@@ -909,12 +916,12 @@
     <definedName name="組合員区分">[25]コード!$S$1:$X$65536</definedName>
     <definedName name="束原" hidden="1">#REF!</definedName>
     <definedName name="属性">#REF!</definedName>
-    <definedName name="多い少ない">[8]値!$K$2:$K$7</definedName>
+    <definedName name="多い少ない">[7]値!$K$2:$K$7</definedName>
     <definedName name="多摩合計">#REF!</definedName>
     <definedName name="多摩差引き">#REF!</definedName>
     <definedName name="貸出可能">#REF!</definedName>
     <definedName name="貸出中">#REF!</definedName>
-    <definedName name="代行有無">[8]値!$F$2:$F$3</definedName>
+    <definedName name="代行有無">[7]値!$F$2:$F$3</definedName>
     <definedName name="棚卸">#REF!</definedName>
     <definedName name="単位">#REF!</definedName>
     <definedName name="値セット">#REF!</definedName>
@@ -925,8 +932,8 @@
     <definedName name="導入時期">#REF!</definedName>
     <definedName name="導入時期う" hidden="1">#REF!</definedName>
     <definedName name="倍率">#REF!</definedName>
-    <definedName name="判断伺手段">[8]値!$E$2:$E$9</definedName>
-    <definedName name="判断者">[8]値!$D$2:$D$7</definedName>
+    <definedName name="判断伺手段">[7]値!$E$2:$E$9</definedName>
+    <definedName name="判断者">[7]値!$D$2:$D$7</definedName>
     <definedName name="備考">#REF!</definedName>
     <definedName name="標準ボタンを設定しない">[22]パラメータ!#REF!</definedName>
     <definedName name="表ID">#REF!</definedName>
@@ -952,7 +959,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="126">
   <si>
     <t>目次</t>
     <rPh sb="0" eb="2">
@@ -969,16 +976,6 @@
   </si>
   <si>
     <t>TAX_8.  税金条件セットの管理</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>財務 &gt; トランザクション税金 &gt; 税金条件セットの管理</t>
-    <rPh sb="13" eb="15">
-      <t>ゼイキン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジョウケン</t>
-    </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -1424,12 +1421,237 @@
   <si>
     <t>新規作成</t>
   </si>
+  <si>
+    <t>SCSK 大山</t>
+    <rPh sb="5" eb="7">
+      <t>オオヤマ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>E_本稼動_19496対応
+北海道伊藤園の収益認識部門入力用の税金コード9808、9810を追加</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ITO_SALES_TCS_9808</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ITO_SALES_TCS_9810</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>伊藤園営業税金条件セット9808</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>伊藤園営業税金条件セット9810</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>9808</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>9810</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>手順</t>
+    <rPh sb="0" eb="2">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メニュー</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>シート</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>説明、その他</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>タスク一覧からの選択</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>設定画面の画面左上より設定種別を確認します。他の名前になっている場合は「▼」をクリックして変更します。</t>
+    <rPh sb="0" eb="4">
+      <t>セッテイガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒダリウエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュベツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>画面左の機能領域から該当のタスク種別を選択し、画面右に表示されたタスク名をクリックします。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュベツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>タスク名が見つからない場合は「表示 &gt; すべてのタスク」を選択して非表示のタスクを表示させます。</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>TAX_8</t>
+  </si>
+  <si>
+    <t>「税金条件セットの管理」をタスク一覧から選択</t>
+    <rPh sb="16" eb="18">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メニュー</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>タスク</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>設定および保守 &gt; 設定：財務 &gt; トランザクション税金</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホシュ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ザイム</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ゼイキン</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>税金条件セットの管理</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「作成（＋）」ボタンをクリック</t>
+    <rPh sb="1" eb="3">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>「完了」ボタンをクリック</t>
+    <rPh sb="1" eb="3">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1553,8 +1775,69 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <color indexed="9"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1579,8 +1862,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1855,8 +2150,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
@@ -1866,8 +2236,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1883,9 +2258,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -1921,71 +2293,75 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="22" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="23" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="24" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="25" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="26" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="3" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="3" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1996,19 +2372,20 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2046,39 +2423,129 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="10">
     <cellStyle name="3232" xfId="2"/>
     <cellStyle name="Normal 100" xfId="3"/>
     <cellStyle name="Normal 3" xfId="5"/>
     <cellStyle name="Normal_CMP_GBL_CONFIGURATION_TEMPLATE_INVENTORY" xfId="4"/>
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="7"/>
+    <cellStyle name="標準 2 2 3" xfId="9"/>
+    <cellStyle name="標準 2 3" xfId="8"/>
     <cellStyle name="標準 3" xfId="6"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2092,6 +2559,327 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>41052</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="370114" y="6215743"/>
+          <a:ext cx="11527971" cy="5723395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="370115" y="2884715"/>
+          <a:ext cx="11527971" cy="2574471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>97972</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>751114</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="471352" y="3217817"/>
+          <a:ext cx="2413362" cy="1159330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1992086</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="449580" y="6951617"/>
+          <a:ext cx="3676106" cy="4414157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2046514</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>335643</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4180114" y="7768045"/>
+          <a:ext cx="7379789" cy="1344386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2231574</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>117929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>689429</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6948354" y="7532189"/>
+          <a:ext cx="1041035" cy="235857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2101,16 +2889,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1863360</xdr:colOff>
+      <xdr:colOff>1631576</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>83278</xdr:rowOff>
+      <xdr:rowOff>107576</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2118,8 +2906,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4238001" y="72869"/>
-          <a:ext cx="2244984" cy="486659"/>
+          <a:off x="3972982" y="72869"/>
+          <a:ext cx="1818218" cy="411225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2188,15 +2976,15 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>296334</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>21168</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2204,8 +2992,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7749823" y="266348"/>
-          <a:ext cx="3519311" cy="945445"/>
+          <a:off x="7037129" y="216482"/>
+          <a:ext cx="3129346" cy="796530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2316,56 +3104,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="表紙"/>
-      <sheetName val="修正履歴"/>
-      <sheetName val="目次"/>
-      <sheetName val="TAX_1"/>
-      <sheetName val="TAX_2"/>
-      <sheetName val="TAX_3"/>
-      <sheetName val="TAX_4"/>
-      <sheetName val="TAX_6"/>
-      <sheetName val="TAX_5"/>
-      <sheetName val="TAX5-2"/>
-      <sheetName val="TAX_7"/>
-      <sheetName val="TAX_8"/>
-      <sheetName val="TAX_9"/>
-      <sheetName val="TAX_10"/>
-      <sheetName val="TAX_11"/>
-      <sheetName val="TAX_12"/>
-      <sheetName val="TAX_13"/>
-      <sheetName val="TAX_14"/>
-      <sheetName val="TAX_16"/>
-      <sheetName val="TAX_22"/>
-      <sheetName val="TAX_15"/>
-      <sheetName val="TAX_21"/>
-      <sheetName val="TAX_23"/>
-      <sheetName val="TAX_24"/>
+      <sheetName val="責準明細表"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3187,10 +3929,126 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="責準明細表"/>
+      <sheetName val="値セット (2)"/>
+      <sheetName val="セグメント要約"/>
+      <sheetName val="グローバルデータ要素"/>
+      <sheetName val="値セット"/>
+      <sheetName val="値"/>
+      <sheetName val="Sheet2"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>値リスト</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>長い値リスト</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>ポップリスト</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>セキュリティなし</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>階層型セキュリティ</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>非階層型セキュリティ</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>文字</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>日付</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>日時</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>数値</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>標準日</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>標準時刻</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>時刻</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>依存</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>独立</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>なし</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>ペア</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>特別</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>表</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>変更可能独立</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>変更可能依存</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5683,135 +6541,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="値セット (2)"/>
-      <sheetName val="セグメント要約"/>
-      <sheetName val="グローバルデータ要素"/>
-      <sheetName val="値セット"/>
-      <sheetName val="値"/>
-      <sheetName val="Sheet2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>値リスト</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>長い値リスト</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>ポップリスト</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>セキュリティなし</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>階層型セキュリティ</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>非階層型セキュリティ</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>文字</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>日付</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>日時</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>数値</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>標準日</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>標準時刻</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19" t="str">
-            <v>時刻</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>依存</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24" t="str">
-            <v>独立</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25" t="str">
-            <v>なし</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26" t="str">
-            <v>ペア</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27" t="str">
-            <v>特別</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28" t="str">
-            <v>表</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29" t="str">
-            <v>変更可能独立</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30" t="str">
-            <v>変更可能依存</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
       <sheetName val="設定フローチャート"/>
       <sheetName val="設定チェックリスト"/>
       <sheetName val="確認事項"/>
@@ -5895,7 +6624,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -6111,7 +6840,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -8098,7 +8827,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -8119,7 +8848,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -8346,7 +9075,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -8371,6 +9100,897 @@
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="表紙"/>
+      <sheetName val="修正履歴"/>
+      <sheetName val="ドメイン定義書"/>
+      <sheetName val="Sample"/>
+      <sheetName val="カテゴリ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="10">
+          <cell r="C10">
+            <v>1</v>
+          </cell>
+          <cell r="J10">
+            <v>0</v>
+          </cell>
+          <cell r="Y10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>2</v>
+          </cell>
+          <cell r="J11">
+            <v>0</v>
+          </cell>
+          <cell r="Y11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>3</v>
+          </cell>
+          <cell r="J12">
+            <v>0</v>
+          </cell>
+          <cell r="Y12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>4</v>
+          </cell>
+          <cell r="J13">
+            <v>0</v>
+          </cell>
+          <cell r="Y13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14">
+            <v>5</v>
+          </cell>
+          <cell r="J14">
+            <v>0</v>
+          </cell>
+          <cell r="Y14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15">
+            <v>6</v>
+          </cell>
+          <cell r="J15">
+            <v>0</v>
+          </cell>
+          <cell r="Y15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16">
+            <v>7</v>
+          </cell>
+          <cell r="J16">
+            <v>0</v>
+          </cell>
+          <cell r="Y16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17">
+            <v>8</v>
+          </cell>
+          <cell r="J17">
+            <v>0</v>
+          </cell>
+          <cell r="Y17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18">
+            <v>9</v>
+          </cell>
+          <cell r="J18">
+            <v>0</v>
+          </cell>
+          <cell r="Y18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19">
+            <v>10</v>
+          </cell>
+          <cell r="J19">
+            <v>0</v>
+          </cell>
+          <cell r="Y19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20">
+            <v>11</v>
+          </cell>
+          <cell r="J20">
+            <v>0</v>
+          </cell>
+          <cell r="Y20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21">
+            <v>12</v>
+          </cell>
+          <cell r="J21">
+            <v>0</v>
+          </cell>
+          <cell r="Y21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22">
+            <v>13</v>
+          </cell>
+          <cell r="J22">
+            <v>0</v>
+          </cell>
+          <cell r="Y22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23">
+            <v>14</v>
+          </cell>
+          <cell r="J23">
+            <v>0</v>
+          </cell>
+          <cell r="Y23">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>15</v>
+          </cell>
+          <cell r="J24">
+            <v>0</v>
+          </cell>
+          <cell r="Y24">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>16</v>
+          </cell>
+          <cell r="J25">
+            <v>0</v>
+          </cell>
+          <cell r="Y25">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>17</v>
+          </cell>
+          <cell r="J26">
+            <v>0</v>
+          </cell>
+          <cell r="Y26">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>18</v>
+          </cell>
+          <cell r="J27">
+            <v>0</v>
+          </cell>
+          <cell r="Y27">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>19</v>
+          </cell>
+          <cell r="J28">
+            <v>0</v>
+          </cell>
+          <cell r="Y28">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29">
+            <v>20</v>
+          </cell>
+          <cell r="J29">
+            <v>0</v>
+          </cell>
+          <cell r="Y29">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30">
+            <v>21</v>
+          </cell>
+          <cell r="J30">
+            <v>0</v>
+          </cell>
+          <cell r="Y30">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31">
+            <v>22</v>
+          </cell>
+          <cell r="J31">
+            <v>0</v>
+          </cell>
+          <cell r="Y31">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
+            <v>23</v>
+          </cell>
+          <cell r="J32">
+            <v>0</v>
+          </cell>
+          <cell r="Y32">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>24</v>
+          </cell>
+          <cell r="J33">
+            <v>0</v>
+          </cell>
+          <cell r="Y33">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>25</v>
+          </cell>
+          <cell r="J34">
+            <v>0</v>
+          </cell>
+          <cell r="Y34">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>26</v>
+          </cell>
+          <cell r="J35">
+            <v>0</v>
+          </cell>
+          <cell r="Y35">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>27</v>
+          </cell>
+          <cell r="J36">
+            <v>0</v>
+          </cell>
+          <cell r="Y36">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>28</v>
+          </cell>
+          <cell r="J37">
+            <v>0</v>
+          </cell>
+          <cell r="Y37">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>29</v>
+          </cell>
+          <cell r="J38">
+            <v>0</v>
+          </cell>
+          <cell r="Y38">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>30</v>
+          </cell>
+          <cell r="J39">
+            <v>0</v>
+          </cell>
+          <cell r="Y39">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>31</v>
+          </cell>
+          <cell r="J40">
+            <v>0</v>
+          </cell>
+          <cell r="Y40">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41">
+            <v>32</v>
+          </cell>
+          <cell r="J41">
+            <v>0</v>
+          </cell>
+          <cell r="Y41">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="C42">
+            <v>33</v>
+          </cell>
+          <cell r="J42">
+            <v>0</v>
+          </cell>
+          <cell r="Y42">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="C43">
+            <v>34</v>
+          </cell>
+          <cell r="J43">
+            <v>0</v>
+          </cell>
+          <cell r="Y43">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="C44">
+            <v>35</v>
+          </cell>
+          <cell r="J44">
+            <v>0</v>
+          </cell>
+          <cell r="Y44">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="C45">
+            <v>36</v>
+          </cell>
+          <cell r="J45">
+            <v>0</v>
+          </cell>
+          <cell r="Y45">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="C46">
+            <v>37</v>
+          </cell>
+          <cell r="J46">
+            <v>0</v>
+          </cell>
+          <cell r="Y46">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="C47">
+            <v>38</v>
+          </cell>
+          <cell r="J47">
+            <v>0</v>
+          </cell>
+          <cell r="Y47">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="C48">
+            <v>39</v>
+          </cell>
+          <cell r="J48">
+            <v>0</v>
+          </cell>
+          <cell r="Y48">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="C49">
+            <v>40</v>
+          </cell>
+          <cell r="J49">
+            <v>0</v>
+          </cell>
+          <cell r="Y49">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="C50">
+            <v>41</v>
+          </cell>
+          <cell r="J50">
+            <v>0</v>
+          </cell>
+          <cell r="Y50">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="C51">
+            <v>42</v>
+          </cell>
+          <cell r="J51">
+            <v>0</v>
+          </cell>
+          <cell r="Y51">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="C52">
+            <v>43</v>
+          </cell>
+          <cell r="J52">
+            <v>0</v>
+          </cell>
+          <cell r="Y52">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="C53">
+            <v>44</v>
+          </cell>
+          <cell r="J53">
+            <v>0</v>
+          </cell>
+          <cell r="Y53">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="C54">
+            <v>45</v>
+          </cell>
+          <cell r="J54">
+            <v>0</v>
+          </cell>
+          <cell r="Y54">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="C55">
+            <v>46</v>
+          </cell>
+          <cell r="J55">
+            <v>0</v>
+          </cell>
+          <cell r="Y55">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="C56">
+            <v>47</v>
+          </cell>
+          <cell r="J56">
+            <v>0</v>
+          </cell>
+          <cell r="Y56">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="C57">
+            <v>48</v>
+          </cell>
+          <cell r="J57">
+            <v>0</v>
+          </cell>
+          <cell r="Y57">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="C58">
+            <v>49</v>
+          </cell>
+          <cell r="J58">
+            <v>0</v>
+          </cell>
+          <cell r="Y58">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="C59">
+            <v>50</v>
+          </cell>
+          <cell r="J59">
+            <v>0</v>
+          </cell>
+          <cell r="Y59">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="C60">
+            <v>51</v>
+          </cell>
+          <cell r="J60">
+            <v>0</v>
+          </cell>
+          <cell r="Y60">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="C61">
+            <v>52</v>
+          </cell>
+          <cell r="J61">
+            <v>0</v>
+          </cell>
+          <cell r="Y61">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="C62">
+            <v>53</v>
+          </cell>
+          <cell r="J62">
+            <v>0</v>
+          </cell>
+          <cell r="Y62">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="C63">
+            <v>54</v>
+          </cell>
+          <cell r="J63">
+            <v>0</v>
+          </cell>
+          <cell r="Y63">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="C64">
+            <v>55</v>
+          </cell>
+          <cell r="J64">
+            <v>0</v>
+          </cell>
+          <cell r="Y64">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="C65">
+            <v>56</v>
+          </cell>
+          <cell r="J65">
+            <v>0</v>
+          </cell>
+          <cell r="Y65">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="C66">
+            <v>57</v>
+          </cell>
+          <cell r="J66">
+            <v>0</v>
+          </cell>
+          <cell r="Y66">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="C67">
+            <v>58</v>
+          </cell>
+          <cell r="J67">
+            <v>0</v>
+          </cell>
+          <cell r="Y67">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="C68">
+            <v>59</v>
+          </cell>
+          <cell r="J68">
+            <v>0</v>
+          </cell>
+          <cell r="Y68">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="C69">
+            <v>60</v>
+          </cell>
+          <cell r="J69">
+            <v>0</v>
+          </cell>
+          <cell r="Y69">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="C70">
+            <v>61</v>
+          </cell>
+          <cell r="J70">
+            <v>0</v>
+          </cell>
+          <cell r="Y70">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="C71">
+            <v>62</v>
+          </cell>
+          <cell r="J71">
+            <v>0</v>
+          </cell>
+          <cell r="Y71">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="C72">
+            <v>63</v>
+          </cell>
+          <cell r="J72">
+            <v>0</v>
+          </cell>
+          <cell r="Y72">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="C73">
+            <v>64</v>
+          </cell>
+          <cell r="J73">
+            <v>0</v>
+          </cell>
+          <cell r="Y73">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="C74">
+            <v>65</v>
+          </cell>
+          <cell r="J74">
+            <v>0</v>
+          </cell>
+          <cell r="Y74">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="C75">
+            <v>66</v>
+          </cell>
+          <cell r="J75">
+            <v>0</v>
+          </cell>
+          <cell r="Y75">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="C76">
+            <v>67</v>
+          </cell>
+          <cell r="J76">
+            <v>0</v>
+          </cell>
+          <cell r="Y76">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="C77">
+            <v>68</v>
+          </cell>
+          <cell r="J77">
+            <v>0</v>
+          </cell>
+          <cell r="Y77">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="C78">
+            <v>69</v>
+          </cell>
+          <cell r="J78">
+            <v>0</v>
+          </cell>
+          <cell r="Y78">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="C79">
+            <v>70</v>
+          </cell>
+          <cell r="J79">
+            <v>0</v>
+          </cell>
+          <cell r="Y79">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="C80">
+            <v>71</v>
+          </cell>
+          <cell r="J80">
+            <v>0</v>
+          </cell>
+          <cell r="Y80">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="C81">
+            <v>72</v>
+          </cell>
+          <cell r="J81">
+            <v>0</v>
+          </cell>
+          <cell r="Y81">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="C82">
+            <v>73</v>
+          </cell>
+          <cell r="J82">
+            <v>0</v>
+          </cell>
+          <cell r="Y82">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="C83">
+            <v>74</v>
+          </cell>
+          <cell r="J83">
+            <v>0</v>
+          </cell>
+          <cell r="Y83">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="C84">
+            <v>75</v>
+          </cell>
+          <cell r="J84">
+            <v>0</v>
+          </cell>
+          <cell r="Y84">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="C85">
+            <v>76</v>
+          </cell>
+          <cell r="J85">
+            <v>0</v>
+          </cell>
+          <cell r="Y85">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="C86">
+            <v>77</v>
+          </cell>
+          <cell r="J86">
+            <v>0</v>
+          </cell>
+          <cell r="Y86">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="C87">
+            <v>78</v>
+          </cell>
+          <cell r="J87">
+            <v>0</v>
+          </cell>
+          <cell r="Y87">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="C88">
+            <v>79</v>
+          </cell>
+          <cell r="J88">
+            <v>0</v>
+          </cell>
+          <cell r="Y88">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8641,235 +10261,239 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="8" width="2.625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="2.75" style="20" customWidth="1"/>
-    <col min="10" max="16384" width="2.625" style="20"/>
+    <col min="1" max="8" width="2.6640625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="2.77734375" style="19" customWidth="1"/>
+    <col min="10" max="16384" width="2.6640625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:37" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+    <row r="1" spans="1:37" ht="11.4" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:37" ht="11.4" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="21" t="s">
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="25"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86"/>
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="87"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A3" s="26">
+      <c r="A3" s="88">
         <v>44936</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29" t="s">
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32" t="s">
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="89"/>
+      <c r="AD3" s="89"/>
+      <c r="AE3" s="89"/>
+      <c r="AF3" s="89"/>
+      <c r="AG3" s="89"/>
+      <c r="AH3" s="89"/>
+      <c r="AI3" s="89"/>
+      <c r="AJ3" s="89"/>
+      <c r="AK3" s="90"/>
+    </row>
+    <row r="4" spans="1:37" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="73">
+        <v>45351</v>
+      </c>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="28"/>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="35"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="74"/>
+      <c r="AG4" s="74"/>
+      <c r="AH4" s="74"/>
+      <c r="AI4" s="74"/>
+      <c r="AJ4" s="74"/>
+      <c r="AK4" s="75"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="47"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="47"/>
-      <c r="AK5" s="48"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="81"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="81"/>
+      <c r="X5" s="81"/>
+      <c r="Y5" s="81"/>
+      <c r="Z5" s="81"/>
+      <c r="AA5" s="81"/>
+      <c r="AB5" s="81"/>
+      <c r="AC5" s="81"/>
+      <c r="AD5" s="81"/>
+      <c r="AE5" s="81"/>
+      <c r="AF5" s="81"/>
+      <c r="AG5" s="81"/>
+      <c r="AH5" s="81"/>
+      <c r="AI5" s="81"/>
+      <c r="AJ5" s="81"/>
+      <c r="AK5" s="82"/>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="50"/>
-      <c r="Y6" s="50"/>
-      <c r="Z6" s="50"/>
-      <c r="AA6" s="50"/>
-      <c r="AB6" s="50"/>
-      <c r="AC6" s="50"/>
-      <c r="AD6" s="50"/>
-      <c r="AE6" s="50"/>
-      <c r="AF6" s="50"/>
-      <c r="AG6" s="50"/>
-      <c r="AH6" s="50"/>
-      <c r="AI6" s="50"/>
-      <c r="AJ6" s="50"/>
-      <c r="AK6" s="51"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="71"/>
+      <c r="AC6" s="71"/>
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="71"/>
+      <c r="AF6" s="71"/>
+      <c r="AG6" s="71"/>
+      <c r="AH6" s="71"/>
+      <c r="AI6" s="71"/>
+      <c r="AJ6" s="71"/>
+      <c r="AK6" s="72"/>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A7" s="40"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="45"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="52"/>
       <c r="K7" s="53"/>
       <c r="L7" s="53"/>
@@ -8900,15 +10524,15 @@
       <c r="AK7" s="54"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A8" s="40"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="45"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="46"/>
       <c r="J8" s="52"/>
       <c r="K8" s="53"/>
       <c r="L8" s="53"/>
@@ -8978,15 +10602,15 @@
       <c r="AK9" s="63"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A10" s="40"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="52"/>
       <c r="K10" s="53"/>
       <c r="L10" s="53"/>
@@ -9017,787 +10641,865 @@
       <c r="AK10" s="54"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A11" s="43"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="64"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="64"/>
-      <c r="W11" s="64"/>
-      <c r="X11" s="64"/>
-      <c r="Y11" s="64"/>
-      <c r="Z11" s="64"/>
-      <c r="AA11" s="64"/>
-      <c r="AB11" s="64"/>
-      <c r="AC11" s="64"/>
-      <c r="AD11" s="64"/>
-      <c r="AE11" s="64"/>
-      <c r="AF11" s="64"/>
-      <c r="AG11" s="64"/>
-      <c r="AH11" s="64"/>
-      <c r="AI11" s="64"/>
-      <c r="AJ11" s="64"/>
-      <c r="AK11" s="65"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="47"/>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="47"/>
+      <c r="AD11" s="47"/>
+      <c r="AE11" s="47"/>
+      <c r="AF11" s="47"/>
+      <c r="AG11" s="47"/>
+      <c r="AH11" s="47"/>
+      <c r="AI11" s="47"/>
+      <c r="AJ11" s="47"/>
+      <c r="AK11" s="48"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A12" s="43"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="64"/>
-      <c r="W12" s="64"/>
-      <c r="X12" s="64"/>
-      <c r="Y12" s="64"/>
-      <c r="Z12" s="64"/>
-      <c r="AA12" s="64"/>
-      <c r="AB12" s="64"/>
-      <c r="AC12" s="64"/>
-      <c r="AD12" s="64"/>
-      <c r="AE12" s="64"/>
-      <c r="AF12" s="64"/>
-      <c r="AG12" s="64"/>
-      <c r="AH12" s="64"/>
-      <c r="AI12" s="64"/>
-      <c r="AJ12" s="64"/>
-      <c r="AK12" s="65"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="47"/>
+      <c r="AA12" s="47"/>
+      <c r="AB12" s="47"/>
+      <c r="AC12" s="47"/>
+      <c r="AD12" s="47"/>
+      <c r="AE12" s="47"/>
+      <c r="AF12" s="47"/>
+      <c r="AG12" s="47"/>
+      <c r="AH12" s="47"/>
+      <c r="AI12" s="47"/>
+      <c r="AJ12" s="47"/>
+      <c r="AK12" s="48"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="64"/>
-      <c r="Y13" s="64"/>
-      <c r="Z13" s="64"/>
-      <c r="AA13" s="64"/>
-      <c r="AB13" s="64"/>
-      <c r="AC13" s="64"/>
-      <c r="AD13" s="64"/>
-      <c r="AE13" s="64"/>
-      <c r="AF13" s="64"/>
-      <c r="AG13" s="64"/>
-      <c r="AH13" s="64"/>
-      <c r="AI13" s="64"/>
-      <c r="AJ13" s="64"/>
-      <c r="AK13" s="65"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="47"/>
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="47"/>
+      <c r="AD13" s="47"/>
+      <c r="AE13" s="47"/>
+      <c r="AF13" s="47"/>
+      <c r="AG13" s="47"/>
+      <c r="AH13" s="47"/>
+      <c r="AI13" s="47"/>
+      <c r="AJ13" s="47"/>
+      <c r="AK13" s="48"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A14" s="43"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="64"/>
-      <c r="X14" s="64"/>
-      <c r="Y14" s="64"/>
-      <c r="Z14" s="64"/>
-      <c r="AA14" s="64"/>
-      <c r="AB14" s="64"/>
-      <c r="AC14" s="64"/>
-      <c r="AD14" s="64"/>
-      <c r="AE14" s="64"/>
-      <c r="AF14" s="64"/>
-      <c r="AG14" s="64"/>
-      <c r="AH14" s="64"/>
-      <c r="AI14" s="64"/>
-      <c r="AJ14" s="64"/>
-      <c r="AK14" s="65"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="47"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="47"/>
+      <c r="AD14" s="47"/>
+      <c r="AE14" s="47"/>
+      <c r="AF14" s="47"/>
+      <c r="AG14" s="47"/>
+      <c r="AH14" s="47"/>
+      <c r="AI14" s="47"/>
+      <c r="AJ14" s="47"/>
+      <c r="AK14" s="48"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A15" s="43"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="64"/>
-      <c r="T15" s="64"/>
-      <c r="U15" s="64"/>
-      <c r="V15" s="64"/>
-      <c r="W15" s="64"/>
-      <c r="X15" s="64"/>
-      <c r="Y15" s="64"/>
-      <c r="Z15" s="64"/>
-      <c r="AA15" s="64"/>
-      <c r="AB15" s="64"/>
-      <c r="AC15" s="64"/>
-      <c r="AD15" s="64"/>
-      <c r="AE15" s="64"/>
-      <c r="AF15" s="64"/>
-      <c r="AG15" s="64"/>
-      <c r="AH15" s="64"/>
-      <c r="AI15" s="64"/>
-      <c r="AJ15" s="64"/>
-      <c r="AK15" s="65"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="47"/>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="47"/>
+      <c r="AD15" s="47"/>
+      <c r="AE15" s="47"/>
+      <c r="AF15" s="47"/>
+      <c r="AG15" s="47"/>
+      <c r="AH15" s="47"/>
+      <c r="AI15" s="47"/>
+      <c r="AJ15" s="47"/>
+      <c r="AK15" s="48"/>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A16" s="43"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="64"/>
-      <c r="T16" s="64"/>
-      <c r="U16" s="64"/>
-      <c r="V16" s="64"/>
-      <c r="W16" s="64"/>
-      <c r="X16" s="64"/>
-      <c r="Y16" s="64"/>
-      <c r="Z16" s="64"/>
-      <c r="AA16" s="64"/>
-      <c r="AB16" s="64"/>
-      <c r="AC16" s="64"/>
-      <c r="AD16" s="64"/>
-      <c r="AE16" s="64"/>
-      <c r="AF16" s="64"/>
-      <c r="AG16" s="64"/>
-      <c r="AH16" s="64"/>
-      <c r="AI16" s="64"/>
-      <c r="AJ16" s="64"/>
-      <c r="AK16" s="65"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="47"/>
+      <c r="X16" s="47"/>
+      <c r="Y16" s="47"/>
+      <c r="Z16" s="47"/>
+      <c r="AA16" s="47"/>
+      <c r="AB16" s="47"/>
+      <c r="AC16" s="47"/>
+      <c r="AD16" s="47"/>
+      <c r="AE16" s="47"/>
+      <c r="AF16" s="47"/>
+      <c r="AG16" s="47"/>
+      <c r="AH16" s="47"/>
+      <c r="AI16" s="47"/>
+      <c r="AJ16" s="47"/>
+      <c r="AK16" s="48"/>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A17" s="43"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="64"/>
-      <c r="T17" s="64"/>
-      <c r="U17" s="64"/>
-      <c r="V17" s="64"/>
-      <c r="W17" s="64"/>
-      <c r="X17" s="64"/>
-      <c r="Y17" s="64"/>
-      <c r="Z17" s="64"/>
-      <c r="AA17" s="64"/>
-      <c r="AB17" s="64"/>
-      <c r="AC17" s="64"/>
-      <c r="AD17" s="64"/>
-      <c r="AE17" s="64"/>
-      <c r="AF17" s="64"/>
-      <c r="AG17" s="64"/>
-      <c r="AH17" s="64"/>
-      <c r="AI17" s="64"/>
-      <c r="AJ17" s="64"/>
-      <c r="AK17" s="65"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="47"/>
+      <c r="X17" s="47"/>
+      <c r="Y17" s="47"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="47"/>
+      <c r="AB17" s="47"/>
+      <c r="AC17" s="47"/>
+      <c r="AD17" s="47"/>
+      <c r="AE17" s="47"/>
+      <c r="AF17" s="47"/>
+      <c r="AG17" s="47"/>
+      <c r="AH17" s="47"/>
+      <c r="AI17" s="47"/>
+      <c r="AJ17" s="47"/>
+      <c r="AK17" s="48"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A18" s="43"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="64"/>
-      <c r="R18" s="64"/>
-      <c r="S18" s="64"/>
-      <c r="T18" s="64"/>
-      <c r="U18" s="64"/>
-      <c r="V18" s="64"/>
-      <c r="W18" s="64"/>
-      <c r="X18" s="64"/>
-      <c r="Y18" s="64"/>
-      <c r="Z18" s="64"/>
-      <c r="AA18" s="64"/>
-      <c r="AB18" s="64"/>
-      <c r="AC18" s="64"/>
-      <c r="AD18" s="64"/>
-      <c r="AE18" s="64"/>
-      <c r="AF18" s="64"/>
-      <c r="AG18" s="64"/>
-      <c r="AH18" s="64"/>
-      <c r="AI18" s="64"/>
-      <c r="AJ18" s="64"/>
-      <c r="AK18" s="65"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="47"/>
+      <c r="Y18" s="47"/>
+      <c r="Z18" s="47"/>
+      <c r="AA18" s="47"/>
+      <c r="AB18" s="47"/>
+      <c r="AC18" s="47"/>
+      <c r="AD18" s="47"/>
+      <c r="AE18" s="47"/>
+      <c r="AF18" s="47"/>
+      <c r="AG18" s="47"/>
+      <c r="AH18" s="47"/>
+      <c r="AI18" s="47"/>
+      <c r="AJ18" s="47"/>
+      <c r="AK18" s="48"/>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A19" s="43"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="64"/>
-      <c r="S19" s="64"/>
-      <c r="T19" s="64"/>
-      <c r="U19" s="64"/>
-      <c r="V19" s="64"/>
-      <c r="W19" s="64"/>
-      <c r="X19" s="64"/>
-      <c r="Y19" s="64"/>
-      <c r="Z19" s="64"/>
-      <c r="AA19" s="64"/>
-      <c r="AB19" s="64"/>
-      <c r="AC19" s="64"/>
-      <c r="AD19" s="64"/>
-      <c r="AE19" s="64"/>
-      <c r="AF19" s="64"/>
-      <c r="AG19" s="64"/>
-      <c r="AH19" s="64"/>
-      <c r="AI19" s="64"/>
-      <c r="AJ19" s="64"/>
-      <c r="AK19" s="65"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="47"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="47"/>
+      <c r="AB19" s="47"/>
+      <c r="AC19" s="47"/>
+      <c r="AD19" s="47"/>
+      <c r="AE19" s="47"/>
+      <c r="AF19" s="47"/>
+      <c r="AG19" s="47"/>
+      <c r="AH19" s="47"/>
+      <c r="AI19" s="47"/>
+      <c r="AJ19" s="47"/>
+      <c r="AK19" s="48"/>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A20" s="43"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="64"/>
-      <c r="R20" s="64"/>
-      <c r="S20" s="64"/>
-      <c r="T20" s="64"/>
-      <c r="U20" s="64"/>
-      <c r="V20" s="64"/>
-      <c r="W20" s="64"/>
-      <c r="X20" s="64"/>
-      <c r="Y20" s="64"/>
-      <c r="Z20" s="64"/>
-      <c r="AA20" s="64"/>
-      <c r="AB20" s="64"/>
-      <c r="AC20" s="64"/>
-      <c r="AD20" s="64"/>
-      <c r="AE20" s="64"/>
-      <c r="AF20" s="64"/>
-      <c r="AG20" s="64"/>
-      <c r="AH20" s="64"/>
-      <c r="AI20" s="64"/>
-      <c r="AJ20" s="64"/>
-      <c r="AK20" s="65"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="47"/>
+      <c r="AF20" s="47"/>
+      <c r="AG20" s="47"/>
+      <c r="AH20" s="47"/>
+      <c r="AI20" s="47"/>
+      <c r="AJ20" s="47"/>
+      <c r="AK20" s="48"/>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A21" s="43"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="64"/>
-      <c r="T21" s="64"/>
-      <c r="U21" s="64"/>
-      <c r="V21" s="64"/>
-      <c r="W21" s="64"/>
-      <c r="X21" s="64"/>
-      <c r="Y21" s="64"/>
-      <c r="Z21" s="64"/>
-      <c r="AA21" s="64"/>
-      <c r="AB21" s="64"/>
-      <c r="AC21" s="64"/>
-      <c r="AD21" s="64"/>
-      <c r="AE21" s="64"/>
-      <c r="AF21" s="64"/>
-      <c r="AG21" s="64"/>
-      <c r="AH21" s="64"/>
-      <c r="AI21" s="64"/>
-      <c r="AJ21" s="64"/>
-      <c r="AK21" s="65"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="47"/>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="47"/>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="47"/>
+      <c r="AD21" s="47"/>
+      <c r="AE21" s="47"/>
+      <c r="AF21" s="47"/>
+      <c r="AG21" s="47"/>
+      <c r="AH21" s="47"/>
+      <c r="AI21" s="47"/>
+      <c r="AJ21" s="47"/>
+      <c r="AK21" s="48"/>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A22" s="43"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="64"/>
-      <c r="R22" s="64"/>
-      <c r="S22" s="64"/>
-      <c r="T22" s="64"/>
-      <c r="U22" s="64"/>
-      <c r="V22" s="64"/>
-      <c r="W22" s="64"/>
-      <c r="X22" s="64"/>
-      <c r="Y22" s="64"/>
-      <c r="Z22" s="64"/>
-      <c r="AA22" s="64"/>
-      <c r="AB22" s="64"/>
-      <c r="AC22" s="64"/>
-      <c r="AD22" s="64"/>
-      <c r="AE22" s="64"/>
-      <c r="AF22" s="64"/>
-      <c r="AG22" s="64"/>
-      <c r="AH22" s="64"/>
-      <c r="AI22" s="64"/>
-      <c r="AJ22" s="64"/>
-      <c r="AK22" s="65"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="47"/>
+      <c r="X22" s="47"/>
+      <c r="Y22" s="47"/>
+      <c r="Z22" s="47"/>
+      <c r="AA22" s="47"/>
+      <c r="AB22" s="47"/>
+      <c r="AC22" s="47"/>
+      <c r="AD22" s="47"/>
+      <c r="AE22" s="47"/>
+      <c r="AF22" s="47"/>
+      <c r="AG22" s="47"/>
+      <c r="AH22" s="47"/>
+      <c r="AI22" s="47"/>
+      <c r="AJ22" s="47"/>
+      <c r="AK22" s="48"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A23" s="43"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="64"/>
-      <c r="T23" s="64"/>
-      <c r="U23" s="64"/>
-      <c r="V23" s="64"/>
-      <c r="W23" s="64"/>
-      <c r="X23" s="64"/>
-      <c r="Y23" s="64"/>
-      <c r="Z23" s="64"/>
-      <c r="AA23" s="64"/>
-      <c r="AB23" s="64"/>
-      <c r="AC23" s="64"/>
-      <c r="AD23" s="64"/>
-      <c r="AE23" s="64"/>
-      <c r="AF23" s="64"/>
-      <c r="AG23" s="64"/>
-      <c r="AH23" s="64"/>
-      <c r="AI23" s="64"/>
-      <c r="AJ23" s="64"/>
-      <c r="AK23" s="65"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="47"/>
+      <c r="X23" s="47"/>
+      <c r="Y23" s="47"/>
+      <c r="Z23" s="47"/>
+      <c r="AA23" s="47"/>
+      <c r="AB23" s="47"/>
+      <c r="AC23" s="47"/>
+      <c r="AD23" s="47"/>
+      <c r="AE23" s="47"/>
+      <c r="AF23" s="47"/>
+      <c r="AG23" s="47"/>
+      <c r="AH23" s="47"/>
+      <c r="AI23" s="47"/>
+      <c r="AJ23" s="47"/>
+      <c r="AK23" s="48"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="64"/>
-      <c r="T24" s="64"/>
-      <c r="U24" s="64"/>
-      <c r="V24" s="64"/>
-      <c r="W24" s="64"/>
-      <c r="X24" s="64"/>
-      <c r="Y24" s="64"/>
-      <c r="Z24" s="64"/>
-      <c r="AA24" s="64"/>
-      <c r="AB24" s="64"/>
-      <c r="AC24" s="64"/>
-      <c r="AD24" s="64"/>
-      <c r="AE24" s="64"/>
-      <c r="AF24" s="64"/>
-      <c r="AG24" s="64"/>
-      <c r="AH24" s="64"/>
-      <c r="AI24" s="64"/>
-      <c r="AJ24" s="64"/>
-      <c r="AK24" s="65"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="47"/>
+      <c r="X24" s="47"/>
+      <c r="Y24" s="47"/>
+      <c r="Z24" s="47"/>
+      <c r="AA24" s="47"/>
+      <c r="AB24" s="47"/>
+      <c r="AC24" s="47"/>
+      <c r="AD24" s="47"/>
+      <c r="AE24" s="47"/>
+      <c r="AF24" s="47"/>
+      <c r="AG24" s="47"/>
+      <c r="AH24" s="47"/>
+      <c r="AI24" s="47"/>
+      <c r="AJ24" s="47"/>
+      <c r="AK24" s="48"/>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="64"/>
-      <c r="P25" s="64"/>
-      <c r="Q25" s="64"/>
-      <c r="R25" s="64"/>
-      <c r="S25" s="64"/>
-      <c r="T25" s="64"/>
-      <c r="U25" s="64"/>
-      <c r="V25" s="64"/>
-      <c r="W25" s="64"/>
-      <c r="X25" s="64"/>
-      <c r="Y25" s="64"/>
-      <c r="Z25" s="64"/>
-      <c r="AA25" s="64"/>
-      <c r="AB25" s="64"/>
-      <c r="AC25" s="64"/>
-      <c r="AD25" s="64"/>
-      <c r="AE25" s="64"/>
-      <c r="AF25" s="64"/>
-      <c r="AG25" s="64"/>
-      <c r="AH25" s="64"/>
-      <c r="AI25" s="64"/>
-      <c r="AJ25" s="64"/>
-      <c r="AK25" s="65"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="47"/>
+      <c r="X25" s="47"/>
+      <c r="Y25" s="47"/>
+      <c r="Z25" s="47"/>
+      <c r="AA25" s="47"/>
+      <c r="AB25" s="47"/>
+      <c r="AC25" s="47"/>
+      <c r="AD25" s="47"/>
+      <c r="AE25" s="47"/>
+      <c r="AF25" s="47"/>
+      <c r="AG25" s="47"/>
+      <c r="AH25" s="47"/>
+      <c r="AI25" s="47"/>
+      <c r="AJ25" s="47"/>
+      <c r="AK25" s="48"/>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="64"/>
-      <c r="Q26" s="64"/>
-      <c r="R26" s="64"/>
-      <c r="S26" s="64"/>
-      <c r="T26" s="64"/>
-      <c r="U26" s="64"/>
-      <c r="V26" s="64"/>
-      <c r="W26" s="64"/>
-      <c r="X26" s="64"/>
-      <c r="Y26" s="64"/>
-      <c r="Z26" s="64"/>
-      <c r="AA26" s="64"/>
-      <c r="AB26" s="64"/>
-      <c r="AC26" s="64"/>
-      <c r="AD26" s="64"/>
-      <c r="AE26" s="64"/>
-      <c r="AF26" s="64"/>
-      <c r="AG26" s="64"/>
-      <c r="AH26" s="64"/>
-      <c r="AI26" s="64"/>
-      <c r="AJ26" s="64"/>
-      <c r="AK26" s="65"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
+      <c r="X26" s="47"/>
+      <c r="Y26" s="47"/>
+      <c r="Z26" s="47"/>
+      <c r="AA26" s="47"/>
+      <c r="AB26" s="47"/>
+      <c r="AC26" s="47"/>
+      <c r="AD26" s="47"/>
+      <c r="AE26" s="47"/>
+      <c r="AF26" s="47"/>
+      <c r="AG26" s="47"/>
+      <c r="AH26" s="47"/>
+      <c r="AI26" s="47"/>
+      <c r="AJ26" s="47"/>
+      <c r="AK26" s="48"/>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A27" s="43"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="64"/>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="64"/>
-      <c r="R27" s="64"/>
-      <c r="S27" s="64"/>
-      <c r="T27" s="64"/>
-      <c r="U27" s="64"/>
-      <c r="V27" s="64"/>
-      <c r="W27" s="64"/>
-      <c r="X27" s="64"/>
-      <c r="Y27" s="64"/>
-      <c r="Z27" s="64"/>
-      <c r="AA27" s="64"/>
-      <c r="AB27" s="64"/>
-      <c r="AC27" s="64"/>
-      <c r="AD27" s="64"/>
-      <c r="AE27" s="64"/>
-      <c r="AF27" s="64"/>
-      <c r="AG27" s="64"/>
-      <c r="AH27" s="64"/>
-      <c r="AI27" s="64"/>
-      <c r="AJ27" s="64"/>
-      <c r="AK27" s="65"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="47"/>
+      <c r="W27" s="47"/>
+      <c r="X27" s="47"/>
+      <c r="Y27" s="47"/>
+      <c r="Z27" s="47"/>
+      <c r="AA27" s="47"/>
+      <c r="AB27" s="47"/>
+      <c r="AC27" s="47"/>
+      <c r="AD27" s="47"/>
+      <c r="AE27" s="47"/>
+      <c r="AF27" s="47"/>
+      <c r="AG27" s="47"/>
+      <c r="AH27" s="47"/>
+      <c r="AI27" s="47"/>
+      <c r="AJ27" s="47"/>
+      <c r="AK27" s="48"/>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="64"/>
-      <c r="P28" s="64"/>
-      <c r="Q28" s="64"/>
-      <c r="R28" s="64"/>
-      <c r="S28" s="64"/>
-      <c r="T28" s="64"/>
-      <c r="U28" s="64"/>
-      <c r="V28" s="64"/>
-      <c r="W28" s="64"/>
-      <c r="X28" s="64"/>
-      <c r="Y28" s="64"/>
-      <c r="Z28" s="64"/>
-      <c r="AA28" s="64"/>
-      <c r="AB28" s="64"/>
-      <c r="AC28" s="64"/>
-      <c r="AD28" s="64"/>
-      <c r="AE28" s="64"/>
-      <c r="AF28" s="64"/>
-      <c r="AG28" s="64"/>
-      <c r="AH28" s="64"/>
-      <c r="AI28" s="64"/>
-      <c r="AJ28" s="64"/>
-      <c r="AK28" s="65"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="47"/>
+      <c r="W28" s="47"/>
+      <c r="X28" s="47"/>
+      <c r="Y28" s="47"/>
+      <c r="Z28" s="47"/>
+      <c r="AA28" s="47"/>
+      <c r="AB28" s="47"/>
+      <c r="AC28" s="47"/>
+      <c r="AD28" s="47"/>
+      <c r="AE28" s="47"/>
+      <c r="AF28" s="47"/>
+      <c r="AG28" s="47"/>
+      <c r="AH28" s="47"/>
+      <c r="AI28" s="47"/>
+      <c r="AJ28" s="47"/>
+      <c r="AK28" s="48"/>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A29" s="43"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="64"/>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="64"/>
-      <c r="U29" s="64"/>
-      <c r="V29" s="64"/>
-      <c r="W29" s="64"/>
-      <c r="X29" s="64"/>
-      <c r="Y29" s="64"/>
-      <c r="Z29" s="64"/>
-      <c r="AA29" s="64"/>
-      <c r="AB29" s="64"/>
-      <c r="AC29" s="64"/>
-      <c r="AD29" s="64"/>
-      <c r="AE29" s="64"/>
-      <c r="AF29" s="64"/>
-      <c r="AG29" s="64"/>
-      <c r="AH29" s="64"/>
-      <c r="AI29" s="64"/>
-      <c r="AJ29" s="64"/>
-      <c r="AK29" s="65"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="47"/>
+      <c r="W29" s="47"/>
+      <c r="X29" s="47"/>
+      <c r="Y29" s="47"/>
+      <c r="Z29" s="47"/>
+      <c r="AA29" s="47"/>
+      <c r="AB29" s="47"/>
+      <c r="AC29" s="47"/>
+      <c r="AD29" s="47"/>
+      <c r="AE29" s="47"/>
+      <c r="AF29" s="47"/>
+      <c r="AG29" s="47"/>
+      <c r="AH29" s="47"/>
+      <c r="AI29" s="47"/>
+      <c r="AJ29" s="47"/>
+      <c r="AK29" s="48"/>
     </row>
-    <row r="30" spans="1:37" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="66"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="69"/>
-      <c r="P30" s="69"/>
-      <c r="Q30" s="69"/>
-      <c r="R30" s="69"/>
-      <c r="S30" s="69"/>
-      <c r="T30" s="69"/>
-      <c r="U30" s="69"/>
-      <c r="V30" s="69"/>
-      <c r="W30" s="69"/>
-      <c r="X30" s="69"/>
-      <c r="Y30" s="69"/>
-      <c r="Z30" s="69"/>
-      <c r="AA30" s="69"/>
-      <c r="AB30" s="69"/>
-      <c r="AC30" s="69"/>
-      <c r="AD30" s="69"/>
-      <c r="AE30" s="69"/>
-      <c r="AF30" s="69"/>
-      <c r="AG30" s="69"/>
-      <c r="AH30" s="69"/>
-      <c r="AI30" s="69"/>
-      <c r="AJ30" s="69"/>
-      <c r="AK30" s="70"/>
+    <row r="30" spans="1:37" ht="11.4" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="39"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="42"/>
+      <c r="AA30" s="42"/>
+      <c r="AB30" s="42"/>
+      <c r="AC30" s="42"/>
+      <c r="AD30" s="42"/>
+      <c r="AE30" s="42"/>
+      <c r="AF30" s="42"/>
+      <c r="AG30" s="42"/>
+      <c r="AH30" s="42"/>
+      <c r="AI30" s="42"/>
+      <c r="AJ30" s="42"/>
+      <c r="AK30" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="87">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:AK2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:AK3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:AK4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:AK5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:AK6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:AK7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:AK8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:AK9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:AK10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:AK11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:AK12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:AK13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:AK14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:AK15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:AK16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:AK17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:AK18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:AK19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:AK20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:AK21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:AK22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AK23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AK24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AK25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AK26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AK27"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="F30:I30"/>
     <mergeCell ref="J30:AK30"/>
@@ -9807,84 +11509,6 @@
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="J29:AK29"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AK26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AK27"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AK24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AK25"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:AK22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AK23"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:AK20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:AK21"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:AK18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:AK19"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:AK16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:AK17"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:AK14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:AK15"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:AK12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:AK13"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:AK10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:AK11"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:AK8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:AK9"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:AK6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:AK7"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:AK4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:AK5"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:AK2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:AK3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9893,1103 +11517,1281 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.125" customWidth="1"/>
-    <col min="3" max="3" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="38" customWidth="1"/>
+    <col min="3" max="5" width="37.6640625" style="38" customWidth="1"/>
+    <col min="6" max="16384" width="9.77734375" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="95" customFormat="1" ht="11.4" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:11" s="96" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B2" s="97"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+    </row>
+    <row r="3" spans="1:11" s="96" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="B3" s="99" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="96" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B4" s="97"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+    </row>
+    <row r="5" spans="1:11" s="96" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="100" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="96" customFormat="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:11" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="96"/>
+      <c r="B7" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="27" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="96"/>
+      <c r="B8" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="27" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="96"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+    </row>
+    <row r="10" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="101"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+    </row>
+    <row r="11" spans="1:11" s="96" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B11" s="97"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+    </row>
+    <row r="12" spans="1:11" s="96" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B12" s="100" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="37"/>
+      <c r="B30" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+    </row>
+    <row r="31" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="37"/>
+      <c r="B31" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
+  </sheetPr>
+  <dimension ref="A1:N46"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="90" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.109375" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="5"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="102" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="K8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="L8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="M8" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="H9" s="10"/>
+      <c r="I9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11" t="s">
+      <c r="J9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="14"/>
+    </row>
+    <row r="10" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="15"/>
+      <c r="B10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="14"/>
     </row>
-    <row r="10" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="11" t="s">
+    <row r="11" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="G11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11" t="s">
+      <c r="J11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="15"/>
+      <c r="K11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="14"/>
     </row>
-    <row r="11" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
+    <row r="12" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="H12" s="10"/>
+      <c r="I12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11" t="s">
+      <c r="J12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="15"/>
+      <c r="K12" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="14"/>
     </row>
-    <row r="12" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11" t="s">
+    <row r="13" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="H13" s="10"/>
+      <c r="I13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11" t="s">
+      <c r="J13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="15"/>
+      <c r="K13" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="14"/>
     </row>
-    <row r="13" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
+    <row r="14" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="H14" s="10"/>
+      <c r="I14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11" t="s">
+      <c r="J14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="15"/>
+      <c r="K14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="14"/>
     </row>
-    <row r="14" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11" t="s">
+    <row r="15" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="G15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="H15" s="10"/>
+      <c r="I15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11" t="s">
+      <c r="J15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="15"/>
+      <c r="K15" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="14"/>
     </row>
-    <row r="15" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
+    <row r="16" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="H16" s="10"/>
+      <c r="I16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11" t="s">
+      <c r="J16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="15"/>
+      <c r="K16" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="14"/>
     </row>
-    <row r="16" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11" t="s">
+    <row r="17" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="G17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="H17" s="10"/>
+      <c r="I17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11" t="s">
+      <c r="J17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="15"/>
+      <c r="K17" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="14"/>
     </row>
-    <row r="17" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
+    <row r="18" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="G18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="H18" s="10"/>
+      <c r="I18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11" t="s">
+      <c r="J18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="15"/>
+      <c r="K18" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="14"/>
     </row>
-    <row r="18" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11" t="s">
+    <row r="19" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="G19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="H19" s="10"/>
+      <c r="I19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11" t="s">
+      <c r="J19" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="15"/>
+      <c r="K19" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="14"/>
     </row>
-    <row r="19" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
+    <row r="20" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="G20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="H20" s="10"/>
+      <c r="I20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11" t="s">
+      <c r="J20" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="15"/>
+      <c r="K20" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="14"/>
     </row>
-    <row r="20" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A20" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11" t="s">
+    <row r="21" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="G21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="H21" s="10"/>
+      <c r="I21" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11" t="s">
+      <c r="J21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="15"/>
+      <c r="K21" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="14"/>
     </row>
-    <row r="21" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A21" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11" t="s">
+    <row r="22" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="G22" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="H22" s="10"/>
+      <c r="I22" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11" t="s">
+      <c r="J22" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="15"/>
+      <c r="K22" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="14"/>
     </row>
-    <row r="22" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A22" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11" t="s">
+    <row r="23" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="G23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="H23" s="10"/>
+      <c r="I23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11" t="s">
+      <c r="J23" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="15"/>
+      <c r="K23" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="14"/>
     </row>
-    <row r="23" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A23" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11" t="s">
+    <row r="24" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="G24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="H24" s="10"/>
+      <c r="I24" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11" t="s">
+      <c r="J24" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="15"/>
+      <c r="K24" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="14"/>
     </row>
-    <row r="24" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A24" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11" t="s">
+    <row r="25" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="G25" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="H25" s="10"/>
+      <c r="I25" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11" t="s">
+      <c r="J25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="15"/>
+      <c r="K25" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="14"/>
     </row>
-    <row r="25" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A25" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11" t="s">
+    <row r="26" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="G26" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="H26" s="10"/>
+      <c r="I26" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11" t="s">
+      <c r="J26" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J25" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="15"/>
+      <c r="K26" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="14"/>
     </row>
-    <row r="26" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A26" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11" t="s">
+    <row r="27" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="G27" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="H27" s="10"/>
+      <c r="I27" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11" t="s">
+      <c r="J27" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K26" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="15"/>
+      <c r="K27" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="14"/>
     </row>
-    <row r="27" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A27" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11" t="s">
+    <row r="28" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="G28" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="H28" s="10"/>
+      <c r="I28" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11" t="s">
+      <c r="J28" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J27" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K27" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="15"/>
+      <c r="K28" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="14"/>
     </row>
-    <row r="28" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11" t="s">
+    <row r="29" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="G29" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="H29" s="10"/>
+      <c r="I29" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11" t="s">
+      <c r="J29" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K28" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="15"/>
+      <c r="K29" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="14"/>
     </row>
-    <row r="29" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A29" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11" t="s">
+    <row r="30" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="G30" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="H30" s="10"/>
+      <c r="I30" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11" t="s">
+      <c r="J30" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K29" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="15"/>
+      <c r="K30" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="14"/>
     </row>
-    <row r="30" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
+    <row r="31" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="G31" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="H31" s="10"/>
+      <c r="I31" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11" t="s">
+      <c r="J31" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K30" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="15"/>
+      <c r="K31" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="14"/>
     </row>
-    <row r="31" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11" t="s">
+    <row r="32" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="G32" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="H32" s="10"/>
+      <c r="I32" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11" t="s">
+      <c r="J32" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J31" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K31" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="15"/>
+      <c r="K32" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="14"/>
     </row>
-    <row r="32" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A32" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
+    <row r="33" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="G33" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="H33" s="20"/>
+      <c r="I33" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11" t="s">
+      <c r="J33" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J32" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K32" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="15"/>
+      <c r="K33" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="14"/>
     </row>
-    <row r="33" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="15"/>
+    <row r="34" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K34" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="14"/>
     </row>
-    <row r="34" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="15"/>
+    <row r="35" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
     </row>
-    <row r="35" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
+    <row r="36" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
     </row>
-    <row r="36" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
+    <row r="37" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
     </row>
-    <row r="37" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
+    <row r="38" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
     </row>
-    <row r="38" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
+    <row r="39" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
     </row>
-    <row r="39" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
+    <row r="40" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
     </row>
-    <row r="40" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
+    <row r="41" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
     </row>
-    <row r="41" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
+    <row r="42" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
     </row>
-    <row r="42" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
+    <row r="43" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
     </row>
-    <row r="43" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
+    <row r="44" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
     </row>
-    <row r="44" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
+    <row r="46" spans="1:14" ht="15" x14ac:dyDescent="0.3">
+      <c r="A46" s="102" t="s">
+        <v>125</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>

--- a/20_営業/07_会計/BR100/ERP_T_BR100_CFO_TAX_08_税金条件セットの管理.xlsx
+++ b/20_営業/07_会計/BR100/ERP_T_BR100_CFO_TAX_08_税金条件セットの管理.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Itoenfile\system\30.SCSK\92_分社化\10_設計フェーズ\10_成果物\【触らないでください】40_その他\ERP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Acomsv01\障害対応\E_本稼動_20101～20200\E_本稼動_20102直営店対応\20_成果物\BR100\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12456"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12456" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="2" r:id="rId1"/>
@@ -959,7 +959,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="135">
   <si>
     <t>目次</t>
     <rPh sb="0" eb="2">
@@ -1432,30 +1432,6 @@
     <t>E_本稼動_19496対応
 北海道伊藤園の収益認識部門入力用の税金コード9808、9810を追加</t>
     <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>ITO_SALES_TCS_9808</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ITO_SALES_TCS_9810</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>伊藤園営業税金条件セット9808</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>伊藤園営業税金条件セット9810</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>9808</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>9810</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>手順</t>
@@ -1646,12 +1622,82 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>ITO_SALES_TCS_9708</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ITO_SALES_TCS_9710</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>伊藤園営業税金条件セット9710</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>伊藤園営業税金条件セット9708</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SCSK 細沼</t>
+    <rPh sb="5" eb="7">
+      <t>ホソヌマ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>ITO_SALES_TCS_9808</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>伊藤園営業税金条件セット9808</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>9808</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ITO_SALES_TCS_9810</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>伊藤園営業税金条件セット9810</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>9810</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>9708</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>9710</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>E_本稼動_20102対応 直営店対応
+伊藤園フードサービスの収益認識部門入力用の税金コード9708、9710を追加</t>
+    <rPh sb="14" eb="17">
+      <t>チョクエイテン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="27" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2242,7 +2288,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2348,6 +2394,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2471,11 +2531,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2512,20 +2567,6 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="3232" xfId="2"/>
@@ -2898,7 +2939,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2984,7 +3025,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10261,1164 +10302,1172 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11:AK11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.8"/>
   <cols>
     <col min="1" max="8" width="2.6640625" style="19" customWidth="1"/>
     <col min="9" max="9" width="2.77734375" style="19" customWidth="1"/>
     <col min="10" max="16384" width="2.6640625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="11.4" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:37" ht="11.4" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="83" t="s">
+    <row r="1" spans="1:37" ht="11.4" thickBot="1"/>
+    <row r="2" spans="1:37" ht="11.4" thickBot="1">
+      <c r="A2" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="83" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="86" t="s">
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="86"/>
-      <c r="AI2" s="86"/>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="87"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="91"/>
+      <c r="Z2" s="91"/>
+      <c r="AA2" s="91"/>
+      <c r="AB2" s="91"/>
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="91"/>
+      <c r="AF2" s="91"/>
+      <c r="AG2" s="91"/>
+      <c r="AH2" s="91"/>
+      <c r="AI2" s="91"/>
+      <c r="AJ2" s="91"/>
+      <c r="AK2" s="92"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A3" s="88">
+    <row r="3" spans="1:37">
+      <c r="A3" s="93">
         <v>44936</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="91" t="s">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="94" t="s">
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="99" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="89"/>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="89"/>
-      <c r="AC3" s="89"/>
-      <c r="AD3" s="89"/>
-      <c r="AE3" s="89"/>
-      <c r="AF3" s="89"/>
-      <c r="AG3" s="89"/>
-      <c r="AH3" s="89"/>
-      <c r="AI3" s="89"/>
-      <c r="AJ3" s="89"/>
-      <c r="AK3" s="90"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="94"/>
+      <c r="AG3" s="94"/>
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="94"/>
+      <c r="AJ3" s="94"/>
+      <c r="AK3" s="95"/>
     </row>
-    <row r="4" spans="1:37" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="73">
+    <row r="4" spans="1:37" ht="23.25" customHeight="1">
+      <c r="A4" s="81">
         <v>45351</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="76" t="s">
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="79" t="s">
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="74"/>
-      <c r="AE4" s="74"/>
-      <c r="AF4" s="74"/>
-      <c r="AG4" s="74"/>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="74"/>
-      <c r="AJ4" s="74"/>
-      <c r="AK4" s="75"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="82"/>
+      <c r="W4" s="82"/>
+      <c r="X4" s="82"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="82"/>
+      <c r="AD4" s="82"/>
+      <c r="AE4" s="82"/>
+      <c r="AF4" s="82"/>
+      <c r="AG4" s="82"/>
+      <c r="AH4" s="82"/>
+      <c r="AI4" s="82"/>
+      <c r="AJ4" s="82"/>
+      <c r="AK4" s="83"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="81"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
-      <c r="W5" s="81"/>
-      <c r="X5" s="81"/>
-      <c r="Y5" s="81"/>
-      <c r="Z5" s="81"/>
-      <c r="AA5" s="81"/>
-      <c r="AB5" s="81"/>
-      <c r="AC5" s="81"/>
-      <c r="AD5" s="81"/>
-      <c r="AE5" s="81"/>
-      <c r="AF5" s="81"/>
-      <c r="AG5" s="81"/>
-      <c r="AH5" s="81"/>
-      <c r="AI5" s="81"/>
-      <c r="AJ5" s="81"/>
-      <c r="AK5" s="82"/>
+    <row r="5" spans="1:37" ht="22.5" customHeight="1">
+      <c r="A5" s="81">
+        <v>45485</v>
+      </c>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="87" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="82"/>
+      <c r="AC5" s="82"/>
+      <c r="AD5" s="82"/>
+      <c r="AE5" s="82"/>
+      <c r="AF5" s="82"/>
+      <c r="AG5" s="82"/>
+      <c r="AH5" s="82"/>
+      <c r="AI5" s="82"/>
+      <c r="AJ5" s="82"/>
+      <c r="AK5" s="83"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A6" s="64"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="71"/>
-      <c r="AB6" s="71"/>
-      <c r="AC6" s="71"/>
-      <c r="AD6" s="71"/>
-      <c r="AE6" s="71"/>
-      <c r="AF6" s="71"/>
-      <c r="AG6" s="71"/>
-      <c r="AH6" s="71"/>
-      <c r="AI6" s="71"/>
-      <c r="AJ6" s="71"/>
-      <c r="AK6" s="72"/>
+    <row r="6" spans="1:37">
+      <c r="A6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="79"/>
+      <c r="Y6" s="79"/>
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="79"/>
+      <c r="AB6" s="79"/>
+      <c r="AC6" s="79"/>
+      <c r="AD6" s="79"/>
+      <c r="AE6" s="79"/>
+      <c r="AF6" s="79"/>
+      <c r="AG6" s="79"/>
+      <c r="AH6" s="79"/>
+      <c r="AI6" s="79"/>
+      <c r="AJ6" s="79"/>
+      <c r="AK6" s="80"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="53"/>
-      <c r="AE7" s="53"/>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="53"/>
-      <c r="AH7" s="53"/>
-      <c r="AI7" s="53"/>
-      <c r="AJ7" s="53"/>
-      <c r="AK7" s="54"/>
+    <row r="7" spans="1:37">
+      <c r="A7" s="57"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
+      <c r="Y7" s="61"/>
+      <c r="Z7" s="61"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="61"/>
+      <c r="AD7" s="61"/>
+      <c r="AE7" s="61"/>
+      <c r="AF7" s="61"/>
+      <c r="AG7" s="61"/>
+      <c r="AH7" s="61"/>
+      <c r="AI7" s="61"/>
+      <c r="AJ7" s="61"/>
+      <c r="AK7" s="62"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="53"/>
-      <c r="AB8" s="53"/>
-      <c r="AC8" s="53"/>
-      <c r="AD8" s="53"/>
-      <c r="AE8" s="53"/>
-      <c r="AF8" s="53"/>
-      <c r="AG8" s="53"/>
-      <c r="AH8" s="53"/>
-      <c r="AI8" s="53"/>
-      <c r="AJ8" s="53"/>
-      <c r="AK8" s="54"/>
+    <row r="8" spans="1:37">
+      <c r="A8" s="57"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="61"/>
+      <c r="X8" s="61"/>
+      <c r="Y8" s="61"/>
+      <c r="Z8" s="61"/>
+      <c r="AA8" s="61"/>
+      <c r="AB8" s="61"/>
+      <c r="AC8" s="61"/>
+      <c r="AD8" s="61"/>
+      <c r="AE8" s="61"/>
+      <c r="AF8" s="61"/>
+      <c r="AG8" s="61"/>
+      <c r="AH8" s="61"/>
+      <c r="AI8" s="61"/>
+      <c r="AJ8" s="61"/>
+      <c r="AK8" s="62"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A9" s="55"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="62"/>
-      <c r="AC9" s="62"/>
-      <c r="AD9" s="62"/>
-      <c r="AE9" s="62"/>
-      <c r="AF9" s="62"/>
-      <c r="AG9" s="62"/>
-      <c r="AH9" s="62"/>
-      <c r="AI9" s="62"/>
-      <c r="AJ9" s="62"/>
-      <c r="AK9" s="63"/>
+    <row r="9" spans="1:37">
+      <c r="A9" s="63"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="70"/>
+      <c r="AD9" s="70"/>
+      <c r="AE9" s="70"/>
+      <c r="AF9" s="70"/>
+      <c r="AG9" s="70"/>
+      <c r="AH9" s="70"/>
+      <c r="AI9" s="70"/>
+      <c r="AJ9" s="70"/>
+      <c r="AK9" s="71"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="53"/>
-      <c r="AD10" s="53"/>
-      <c r="AE10" s="53"/>
-      <c r="AF10" s="53"/>
-      <c r="AG10" s="53"/>
-      <c r="AH10" s="53"/>
-      <c r="AI10" s="53"/>
-      <c r="AJ10" s="53"/>
-      <c r="AK10" s="54"/>
+    <row r="10" spans="1:37">
+      <c r="A10" s="57"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="61"/>
+      <c r="Z10" s="61"/>
+      <c r="AA10" s="61"/>
+      <c r="AB10" s="61"/>
+      <c r="AC10" s="61"/>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="61"/>
+      <c r="AF10" s="61"/>
+      <c r="AG10" s="61"/>
+      <c r="AH10" s="61"/>
+      <c r="AI10" s="61"/>
+      <c r="AJ10" s="61"/>
+      <c r="AK10" s="62"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A11" s="44"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="47"/>
-      <c r="AB11" s="47"/>
-      <c r="AC11" s="47"/>
-      <c r="AD11" s="47"/>
-      <c r="AE11" s="47"/>
-      <c r="AF11" s="47"/>
-      <c r="AG11" s="47"/>
-      <c r="AH11" s="47"/>
-      <c r="AI11" s="47"/>
-      <c r="AJ11" s="47"/>
-      <c r="AK11" s="48"/>
+    <row r="11" spans="1:37">
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="55"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="55"/>
+      <c r="AA11" s="55"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="55"/>
+      <c r="AD11" s="55"/>
+      <c r="AE11" s="55"/>
+      <c r="AF11" s="55"/>
+      <c r="AG11" s="55"/>
+      <c r="AH11" s="55"/>
+      <c r="AI11" s="55"/>
+      <c r="AJ11" s="55"/>
+      <c r="AK11" s="56"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A12" s="44"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="47"/>
-      <c r="AB12" s="47"/>
-      <c r="AC12" s="47"/>
-      <c r="AD12" s="47"/>
-      <c r="AE12" s="47"/>
-      <c r="AF12" s="47"/>
-      <c r="AG12" s="47"/>
-      <c r="AH12" s="47"/>
-      <c r="AI12" s="47"/>
-      <c r="AJ12" s="47"/>
-      <c r="AK12" s="48"/>
+    <row r="12" spans="1:37">
+      <c r="A12" s="52"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="55"/>
+      <c r="AA12" s="55"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="55"/>
+      <c r="AD12" s="55"/>
+      <c r="AE12" s="55"/>
+      <c r="AF12" s="55"/>
+      <c r="AG12" s="55"/>
+      <c r="AH12" s="55"/>
+      <c r="AI12" s="55"/>
+      <c r="AJ12" s="55"/>
+      <c r="AK12" s="56"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="47"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="47"/>
-      <c r="AD13" s="47"/>
-      <c r="AE13" s="47"/>
-      <c r="AF13" s="47"/>
-      <c r="AG13" s="47"/>
-      <c r="AH13" s="47"/>
-      <c r="AI13" s="47"/>
-      <c r="AJ13" s="47"/>
-      <c r="AK13" s="48"/>
+    <row r="13" spans="1:37">
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="55"/>
+      <c r="AA13" s="55"/>
+      <c r="AB13" s="55"/>
+      <c r="AC13" s="55"/>
+      <c r="AD13" s="55"/>
+      <c r="AE13" s="55"/>
+      <c r="AF13" s="55"/>
+      <c r="AG13" s="55"/>
+      <c r="AH13" s="55"/>
+      <c r="AI13" s="55"/>
+      <c r="AJ13" s="55"/>
+      <c r="AK13" s="56"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="47"/>
-      <c r="AD14" s="47"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="47"/>
-      <c r="AG14" s="47"/>
-      <c r="AH14" s="47"/>
-      <c r="AI14" s="47"/>
-      <c r="AJ14" s="47"/>
-      <c r="AK14" s="48"/>
+    <row r="14" spans="1:37">
+      <c r="A14" s="52"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="55"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="55"/>
+      <c r="AC14" s="55"/>
+      <c r="AD14" s="55"/>
+      <c r="AE14" s="55"/>
+      <c r="AF14" s="55"/>
+      <c r="AG14" s="55"/>
+      <c r="AH14" s="55"/>
+      <c r="AI14" s="55"/>
+      <c r="AJ14" s="55"/>
+      <c r="AK14" s="56"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A15" s="44"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="47"/>
-      <c r="Y15" s="47"/>
-      <c r="Z15" s="47"/>
-      <c r="AA15" s="47"/>
-      <c r="AB15" s="47"/>
-      <c r="AC15" s="47"/>
-      <c r="AD15" s="47"/>
-      <c r="AE15" s="47"/>
-      <c r="AF15" s="47"/>
-      <c r="AG15" s="47"/>
-      <c r="AH15" s="47"/>
-      <c r="AI15" s="47"/>
-      <c r="AJ15" s="47"/>
-      <c r="AK15" s="48"/>
+    <row r="15" spans="1:37">
+      <c r="A15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="55"/>
+      <c r="Y15" s="55"/>
+      <c r="Z15" s="55"/>
+      <c r="AA15" s="55"/>
+      <c r="AB15" s="55"/>
+      <c r="AC15" s="55"/>
+      <c r="AD15" s="55"/>
+      <c r="AE15" s="55"/>
+      <c r="AF15" s="55"/>
+      <c r="AG15" s="55"/>
+      <c r="AH15" s="55"/>
+      <c r="AI15" s="55"/>
+      <c r="AJ15" s="55"/>
+      <c r="AK15" s="56"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A16" s="44"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="47"/>
-      <c r="Y16" s="47"/>
-      <c r="Z16" s="47"/>
-      <c r="AA16" s="47"/>
-      <c r="AB16" s="47"/>
-      <c r="AC16" s="47"/>
-      <c r="AD16" s="47"/>
-      <c r="AE16" s="47"/>
-      <c r="AF16" s="47"/>
-      <c r="AG16" s="47"/>
-      <c r="AH16" s="47"/>
-      <c r="AI16" s="47"/>
-      <c r="AJ16" s="47"/>
-      <c r="AK16" s="48"/>
+    <row r="16" spans="1:37">
+      <c r="A16" s="52"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="55"/>
+      <c r="Y16" s="55"/>
+      <c r="Z16" s="55"/>
+      <c r="AA16" s="55"/>
+      <c r="AB16" s="55"/>
+      <c r="AC16" s="55"/>
+      <c r="AD16" s="55"/>
+      <c r="AE16" s="55"/>
+      <c r="AF16" s="55"/>
+      <c r="AG16" s="55"/>
+      <c r="AH16" s="55"/>
+      <c r="AI16" s="55"/>
+      <c r="AJ16" s="55"/>
+      <c r="AK16" s="56"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A17" s="44"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="47"/>
-      <c r="X17" s="47"/>
-      <c r="Y17" s="47"/>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="47"/>
-      <c r="AB17" s="47"/>
-      <c r="AC17" s="47"/>
-      <c r="AD17" s="47"/>
-      <c r="AE17" s="47"/>
-      <c r="AF17" s="47"/>
-      <c r="AG17" s="47"/>
-      <c r="AH17" s="47"/>
-      <c r="AI17" s="47"/>
-      <c r="AJ17" s="47"/>
-      <c r="AK17" s="48"/>
+    <row r="17" spans="1:37">
+      <c r="A17" s="52"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="55"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="55"/>
+      <c r="AA17" s="55"/>
+      <c r="AB17" s="55"/>
+      <c r="AC17" s="55"/>
+      <c r="AD17" s="55"/>
+      <c r="AE17" s="55"/>
+      <c r="AF17" s="55"/>
+      <c r="AG17" s="55"/>
+      <c r="AH17" s="55"/>
+      <c r="AI17" s="55"/>
+      <c r="AJ17" s="55"/>
+      <c r="AK17" s="56"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="47"/>
-      <c r="X18" s="47"/>
-      <c r="Y18" s="47"/>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="47"/>
-      <c r="AB18" s="47"/>
-      <c r="AC18" s="47"/>
-      <c r="AD18" s="47"/>
-      <c r="AE18" s="47"/>
-      <c r="AF18" s="47"/>
-      <c r="AG18" s="47"/>
-      <c r="AH18" s="47"/>
-      <c r="AI18" s="47"/>
-      <c r="AJ18" s="47"/>
-      <c r="AK18" s="48"/>
+    <row r="18" spans="1:37">
+      <c r="A18" s="52"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="55"/>
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="55"/>
+      <c r="AA18" s="55"/>
+      <c r="AB18" s="55"/>
+      <c r="AC18" s="55"/>
+      <c r="AD18" s="55"/>
+      <c r="AE18" s="55"/>
+      <c r="AF18" s="55"/>
+      <c r="AG18" s="55"/>
+      <c r="AH18" s="55"/>
+      <c r="AI18" s="55"/>
+      <c r="AJ18" s="55"/>
+      <c r="AK18" s="56"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A19" s="44"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="47"/>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="47"/>
-      <c r="AB19" s="47"/>
-      <c r="AC19" s="47"/>
-      <c r="AD19" s="47"/>
-      <c r="AE19" s="47"/>
-      <c r="AF19" s="47"/>
-      <c r="AG19" s="47"/>
-      <c r="AH19" s="47"/>
-      <c r="AI19" s="47"/>
-      <c r="AJ19" s="47"/>
-      <c r="AK19" s="48"/>
+    <row r="19" spans="1:37">
+      <c r="A19" s="52"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="55"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="55"/>
+      <c r="AA19" s="55"/>
+      <c r="AB19" s="55"/>
+      <c r="AC19" s="55"/>
+      <c r="AD19" s="55"/>
+      <c r="AE19" s="55"/>
+      <c r="AF19" s="55"/>
+      <c r="AG19" s="55"/>
+      <c r="AH19" s="55"/>
+      <c r="AI19" s="55"/>
+      <c r="AJ19" s="55"/>
+      <c r="AK19" s="56"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="47"/>
-      <c r="AC20" s="47"/>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="47"/>
-      <c r="AF20" s="47"/>
-      <c r="AG20" s="47"/>
-      <c r="AH20" s="47"/>
-      <c r="AI20" s="47"/>
-      <c r="AJ20" s="47"/>
-      <c r="AK20" s="48"/>
+    <row r="20" spans="1:37">
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="55"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="55"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="55"/>
+      <c r="AA20" s="55"/>
+      <c r="AB20" s="55"/>
+      <c r="AC20" s="55"/>
+      <c r="AD20" s="55"/>
+      <c r="AE20" s="55"/>
+      <c r="AF20" s="55"/>
+      <c r="AG20" s="55"/>
+      <c r="AH20" s="55"/>
+      <c r="AI20" s="55"/>
+      <c r="AJ20" s="55"/>
+      <c r="AK20" s="56"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A21" s="44"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="47"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="47"/>
-      <c r="AB21" s="47"/>
-      <c r="AC21" s="47"/>
-      <c r="AD21" s="47"/>
-      <c r="AE21" s="47"/>
-      <c r="AF21" s="47"/>
-      <c r="AG21" s="47"/>
-      <c r="AH21" s="47"/>
-      <c r="AI21" s="47"/>
-      <c r="AJ21" s="47"/>
-      <c r="AK21" s="48"/>
+    <row r="21" spans="1:37">
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="55"/>
+      <c r="AB21" s="55"/>
+      <c r="AC21" s="55"/>
+      <c r="AD21" s="55"/>
+      <c r="AE21" s="55"/>
+      <c r="AF21" s="55"/>
+      <c r="AG21" s="55"/>
+      <c r="AH21" s="55"/>
+      <c r="AI21" s="55"/>
+      <c r="AJ21" s="55"/>
+      <c r="AK21" s="56"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A22" s="44"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="47"/>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="47"/>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="47"/>
-      <c r="AB22" s="47"/>
-      <c r="AC22" s="47"/>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="47"/>
-      <c r="AF22" s="47"/>
-      <c r="AG22" s="47"/>
-      <c r="AH22" s="47"/>
-      <c r="AI22" s="47"/>
-      <c r="AJ22" s="47"/>
-      <c r="AK22" s="48"/>
+    <row r="22" spans="1:37">
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="55"/>
+      <c r="Y22" s="55"/>
+      <c r="Z22" s="55"/>
+      <c r="AA22" s="55"/>
+      <c r="AB22" s="55"/>
+      <c r="AC22" s="55"/>
+      <c r="AD22" s="55"/>
+      <c r="AE22" s="55"/>
+      <c r="AF22" s="55"/>
+      <c r="AG22" s="55"/>
+      <c r="AH22" s="55"/>
+      <c r="AI22" s="55"/>
+      <c r="AJ22" s="55"/>
+      <c r="AK22" s="56"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A23" s="44"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="47"/>
-      <c r="W23" s="47"/>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="47"/>
-      <c r="AA23" s="47"/>
-      <c r="AB23" s="47"/>
-      <c r="AC23" s="47"/>
-      <c r="AD23" s="47"/>
-      <c r="AE23" s="47"/>
-      <c r="AF23" s="47"/>
-      <c r="AG23" s="47"/>
-      <c r="AH23" s="47"/>
-      <c r="AI23" s="47"/>
-      <c r="AJ23" s="47"/>
-      <c r="AK23" s="48"/>
+    <row r="23" spans="1:37">
+      <c r="A23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="55"/>
+      <c r="AA23" s="55"/>
+      <c r="AB23" s="55"/>
+      <c r="AC23" s="55"/>
+      <c r="AD23" s="55"/>
+      <c r="AE23" s="55"/>
+      <c r="AF23" s="55"/>
+      <c r="AG23" s="55"/>
+      <c r="AH23" s="55"/>
+      <c r="AI23" s="55"/>
+      <c r="AJ23" s="55"/>
+      <c r="AK23" s="56"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A24" s="44"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="47"/>
-      <c r="U24" s="47"/>
-      <c r="V24" s="47"/>
-      <c r="W24" s="47"/>
-      <c r="X24" s="47"/>
-      <c r="Y24" s="47"/>
-      <c r="Z24" s="47"/>
-      <c r="AA24" s="47"/>
-      <c r="AB24" s="47"/>
-      <c r="AC24" s="47"/>
-      <c r="AD24" s="47"/>
-      <c r="AE24" s="47"/>
-      <c r="AF24" s="47"/>
-      <c r="AG24" s="47"/>
-      <c r="AH24" s="47"/>
-      <c r="AI24" s="47"/>
-      <c r="AJ24" s="47"/>
-      <c r="AK24" s="48"/>
+    <row r="24" spans="1:37">
+      <c r="A24" s="52"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="55"/>
+      <c r="AA24" s="55"/>
+      <c r="AB24" s="55"/>
+      <c r="AC24" s="55"/>
+      <c r="AD24" s="55"/>
+      <c r="AE24" s="55"/>
+      <c r="AF24" s="55"/>
+      <c r="AG24" s="55"/>
+      <c r="AH24" s="55"/>
+      <c r="AI24" s="55"/>
+      <c r="AJ24" s="55"/>
+      <c r="AK24" s="56"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A25" s="44"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="47"/>
-      <c r="V25" s="47"/>
-      <c r="W25" s="47"/>
-      <c r="X25" s="47"/>
-      <c r="Y25" s="47"/>
-      <c r="Z25" s="47"/>
-      <c r="AA25" s="47"/>
-      <c r="AB25" s="47"/>
-      <c r="AC25" s="47"/>
-      <c r="AD25" s="47"/>
-      <c r="AE25" s="47"/>
-      <c r="AF25" s="47"/>
-      <c r="AG25" s="47"/>
-      <c r="AH25" s="47"/>
-      <c r="AI25" s="47"/>
-      <c r="AJ25" s="47"/>
-      <c r="AK25" s="48"/>
+    <row r="25" spans="1:37">
+      <c r="A25" s="52"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="55"/>
+      <c r="AA25" s="55"/>
+      <c r="AB25" s="55"/>
+      <c r="AC25" s="55"/>
+      <c r="AD25" s="55"/>
+      <c r="AE25" s="55"/>
+      <c r="AF25" s="55"/>
+      <c r="AG25" s="55"/>
+      <c r="AH25" s="55"/>
+      <c r="AI25" s="55"/>
+      <c r="AJ25" s="55"/>
+      <c r="AK25" s="56"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A26" s="44"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="47"/>
-      <c r="V26" s="47"/>
-      <c r="W26" s="47"/>
-      <c r="X26" s="47"/>
-      <c r="Y26" s="47"/>
-      <c r="Z26" s="47"/>
-      <c r="AA26" s="47"/>
-      <c r="AB26" s="47"/>
-      <c r="AC26" s="47"/>
-      <c r="AD26" s="47"/>
-      <c r="AE26" s="47"/>
-      <c r="AF26" s="47"/>
-      <c r="AG26" s="47"/>
-      <c r="AH26" s="47"/>
-      <c r="AI26" s="47"/>
-      <c r="AJ26" s="47"/>
-      <c r="AK26" s="48"/>
+    <row r="26" spans="1:37">
+      <c r="A26" s="52"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="55"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="55"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="55"/>
+      <c r="Y26" s="55"/>
+      <c r="Z26" s="55"/>
+      <c r="AA26" s="55"/>
+      <c r="AB26" s="55"/>
+      <c r="AC26" s="55"/>
+      <c r="AD26" s="55"/>
+      <c r="AE26" s="55"/>
+      <c r="AF26" s="55"/>
+      <c r="AG26" s="55"/>
+      <c r="AH26" s="55"/>
+      <c r="AI26" s="55"/>
+      <c r="AJ26" s="55"/>
+      <c r="AK26" s="56"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A27" s="44"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="47"/>
-      <c r="W27" s="47"/>
-      <c r="X27" s="47"/>
-      <c r="Y27" s="47"/>
-      <c r="Z27" s="47"/>
-      <c r="AA27" s="47"/>
-      <c r="AB27" s="47"/>
-      <c r="AC27" s="47"/>
-      <c r="AD27" s="47"/>
-      <c r="AE27" s="47"/>
-      <c r="AF27" s="47"/>
-      <c r="AG27" s="47"/>
-      <c r="AH27" s="47"/>
-      <c r="AI27" s="47"/>
-      <c r="AJ27" s="47"/>
-      <c r="AK27" s="48"/>
+    <row r="27" spans="1:37">
+      <c r="A27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="55"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="55"/>
+      <c r="W27" s="55"/>
+      <c r="X27" s="55"/>
+      <c r="Y27" s="55"/>
+      <c r="Z27" s="55"/>
+      <c r="AA27" s="55"/>
+      <c r="AB27" s="55"/>
+      <c r="AC27" s="55"/>
+      <c r="AD27" s="55"/>
+      <c r="AE27" s="55"/>
+      <c r="AF27" s="55"/>
+      <c r="AG27" s="55"/>
+      <c r="AH27" s="55"/>
+      <c r="AI27" s="55"/>
+      <c r="AJ27" s="55"/>
+      <c r="AK27" s="56"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A28" s="44"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="47"/>
-      <c r="W28" s="47"/>
-      <c r="X28" s="47"/>
-      <c r="Y28" s="47"/>
-      <c r="Z28" s="47"/>
-      <c r="AA28" s="47"/>
-      <c r="AB28" s="47"/>
-      <c r="AC28" s="47"/>
-      <c r="AD28" s="47"/>
-      <c r="AE28" s="47"/>
-      <c r="AF28" s="47"/>
-      <c r="AG28" s="47"/>
-      <c r="AH28" s="47"/>
-      <c r="AI28" s="47"/>
-      <c r="AJ28" s="47"/>
-      <c r="AK28" s="48"/>
+    <row r="28" spans="1:37">
+      <c r="A28" s="52"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="55"/>
+      <c r="AA28" s="55"/>
+      <c r="AB28" s="55"/>
+      <c r="AC28" s="55"/>
+      <c r="AD28" s="55"/>
+      <c r="AE28" s="55"/>
+      <c r="AF28" s="55"/>
+      <c r="AG28" s="55"/>
+      <c r="AH28" s="55"/>
+      <c r="AI28" s="55"/>
+      <c r="AJ28" s="55"/>
+      <c r="AK28" s="56"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A29" s="44"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="47"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="47"/>
-      <c r="W29" s="47"/>
-      <c r="X29" s="47"/>
-      <c r="Y29" s="47"/>
-      <c r="Z29" s="47"/>
-      <c r="AA29" s="47"/>
-      <c r="AB29" s="47"/>
-      <c r="AC29" s="47"/>
-      <c r="AD29" s="47"/>
-      <c r="AE29" s="47"/>
-      <c r="AF29" s="47"/>
-      <c r="AG29" s="47"/>
-      <c r="AH29" s="47"/>
-      <c r="AI29" s="47"/>
-      <c r="AJ29" s="47"/>
-      <c r="AK29" s="48"/>
+    <row r="29" spans="1:37">
+      <c r="A29" s="52"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="55"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="55"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="55"/>
+      <c r="AA29" s="55"/>
+      <c r="AB29" s="55"/>
+      <c r="AC29" s="55"/>
+      <c r="AD29" s="55"/>
+      <c r="AE29" s="55"/>
+      <c r="AF29" s="55"/>
+      <c r="AG29" s="55"/>
+      <c r="AH29" s="55"/>
+      <c r="AI29" s="55"/>
+      <c r="AJ29" s="55"/>
+      <c r="AK29" s="56"/>
     </row>
-    <row r="30" spans="1:37" ht="11.4" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="39"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="42"/>
-      <c r="T30" s="42"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="42"/>
-      <c r="W30" s="42"/>
-      <c r="X30" s="42"/>
-      <c r="Y30" s="42"/>
-      <c r="Z30" s="42"/>
-      <c r="AA30" s="42"/>
-      <c r="AB30" s="42"/>
-      <c r="AC30" s="42"/>
-      <c r="AD30" s="42"/>
-      <c r="AE30" s="42"/>
-      <c r="AF30" s="42"/>
-      <c r="AG30" s="42"/>
-      <c r="AH30" s="42"/>
-      <c r="AI30" s="42"/>
-      <c r="AJ30" s="42"/>
-      <c r="AK30" s="43"/>
+    <row r="30" spans="1:37" ht="11.4" thickBot="1">
+      <c r="A30" s="47"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="50"/>
+      <c r="Z30" s="50"/>
+      <c r="AA30" s="50"/>
+      <c r="AB30" s="50"/>
+      <c r="AC30" s="50"/>
+      <c r="AD30" s="50"/>
+      <c r="AE30" s="50"/>
+      <c r="AF30" s="50"/>
+      <c r="AG30" s="50"/>
+      <c r="AH30" s="50"/>
+      <c r="AI30" s="50"/>
+      <c r="AJ30" s="50"/>
+      <c r="AK30" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="87">
@@ -11519,11 +11568,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.44140625" style="37" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" style="38" customWidth="1"/>
@@ -11531,100 +11578,100 @@
     <col min="6" max="16384" width="9.77734375" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="95" customFormat="1" ht="11.4" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:11" s="96" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B2" s="97"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
+    <row r="1" spans="1:11" s="39" customFormat="1" ht="11.4"/>
+    <row r="2" spans="1:11" s="40" customFormat="1" ht="14.4">
+      <c r="B2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
-    <row r="3" spans="1:11" s="96" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B3" s="99" t="s">
-        <v>110</v>
+    <row r="3" spans="1:11" s="40" customFormat="1" ht="18.600000000000001">
+      <c r="B3" s="43" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="96" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="97"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
+    <row r="4" spans="1:11" s="40" customFormat="1" ht="14.4">
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
-    <row r="5" spans="1:11" s="96" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B5" s="100" t="s">
-        <v>111</v>
+    <row r="5" spans="1:11" s="40" customFormat="1" ht="16.2">
+      <c r="B5" s="44" t="s">
+        <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="96" customFormat="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:11" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="96"/>
+    <row r="6" spans="1:11" s="40" customFormat="1" thickBot="1"/>
+    <row r="7" spans="1:11" s="27" customFormat="1" ht="14.4">
+      <c r="A7" s="40"/>
       <c r="B7" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="27" customFormat="1" ht="28.8">
+      <c r="A8" s="40"/>
+      <c r="B8" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="26" t="s">
+      <c r="C8" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="30" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="27" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="96"/>
-      <c r="B8" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="27" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="96"/>
+    <row r="9" spans="1:11" s="27" customFormat="1" thickBot="1">
+      <c r="A9" s="40"/>
       <c r="B9" s="31"/>
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" s="33"/>
     </row>
-    <row r="10" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="101"/>
+    <row r="10" spans="1:11" s="36" customFormat="1">
+      <c r="A10" s="45"/>
       <c r="B10" s="34"/>
       <c r="C10" s="35"/>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
     </row>
-    <row r="11" spans="1:11" s="96" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="97"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
+    <row r="11" spans="1:11" s="40" customFormat="1" ht="14.4">
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
     </row>
-    <row r="12" spans="1:11" s="96" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="100" t="s">
-        <v>114</v>
+    <row r="12" spans="1:11" s="40" customFormat="1" ht="16.2">
+      <c r="B12" s="44" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="B14" s="38" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="38" customFormat="1">
       <c r="A30" s="37"/>
       <c r="B30" s="38" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
@@ -11633,10 +11680,10 @@
       <c r="J30" s="37"/>
       <c r="K30" s="37"/>
     </row>
-    <row r="31" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="38" customFormat="1">
       <c r="A31" s="37"/>
       <c r="B31" s="38" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F31" s="37"/>
       <c r="G31" s="37"/>
@@ -11657,46 +11704,46 @@
   <sheetPr>
     <tabColor rgb="FFFF99CC"/>
   </sheetPr>
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="35.109375" customWidth="1"/>
     <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="15">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="15">
       <c r="A4" s="2"/>
       <c r="B4" s="5"/>
     </row>
-    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="102" t="s">
-        <v>124</v>
+    <row r="7" spans="1:14" ht="15">
+      <c r="A7" s="46" t="s">
+        <v>118</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -11712,7 +11759,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="15">
       <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
@@ -11754,7 +11801,7 @@
       </c>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="15" customFormat="1" ht="15">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -11788,7 +11835,7 @@
       <c r="M9" s="13"/>
       <c r="N9" s="14"/>
     </row>
-    <row r="10" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="15" customFormat="1" ht="15">
       <c r="A10" s="10" t="s">
         <v>26</v>
       </c>
@@ -11822,7 +11869,7 @@
       <c r="M10" s="13"/>
       <c r="N10" s="14"/>
     </row>
-    <row r="11" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="15" customFormat="1" ht="15">
       <c r="A11" s="10" t="s">
         <v>31</v>
       </c>
@@ -11856,7 +11903,7 @@
       <c r="M11" s="13"/>
       <c r="N11" s="14"/>
     </row>
-    <row r="12" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" s="15" customFormat="1" ht="15">
       <c r="A12" s="10" t="s">
         <v>34</v>
       </c>
@@ -11890,7 +11937,7 @@
       <c r="M12" s="13"/>
       <c r="N12" s="14"/>
     </row>
-    <row r="13" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" s="15" customFormat="1" ht="15">
       <c r="A13" s="10" t="s">
         <v>37</v>
       </c>
@@ -11924,7 +11971,7 @@
       <c r="M13" s="13"/>
       <c r="N13" s="14"/>
     </row>
-    <row r="14" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" s="15" customFormat="1" ht="15">
       <c r="A14" s="10" t="s">
         <v>40</v>
       </c>
@@ -11958,7 +12005,7 @@
       <c r="M14" s="13"/>
       <c r="N14" s="14"/>
     </row>
-    <row r="15" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" s="15" customFormat="1" ht="15">
       <c r="A15" s="10" t="s">
         <v>43</v>
       </c>
@@ -11992,7 +12039,7 @@
       <c r="M15" s="13"/>
       <c r="N15" s="14"/>
     </row>
-    <row r="16" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" s="15" customFormat="1" ht="15">
       <c r="A16" s="10" t="s">
         <v>46</v>
       </c>
@@ -12026,7 +12073,7 @@
       <c r="M16" s="13"/>
       <c r="N16" s="14"/>
     </row>
-    <row r="17" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" s="15" customFormat="1" ht="15">
       <c r="A17" s="10" t="s">
         <v>49</v>
       </c>
@@ -12060,7 +12107,7 @@
       <c r="M17" s="13"/>
       <c r="N17" s="14"/>
     </row>
-    <row r="18" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" s="15" customFormat="1" ht="15">
       <c r="A18" s="10" t="s">
         <v>52</v>
       </c>
@@ -12094,7 +12141,7 @@
       <c r="M18" s="13"/>
       <c r="N18" s="14"/>
     </row>
-    <row r="19" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" s="15" customFormat="1" ht="15">
       <c r="A19" s="10" t="s">
         <v>55</v>
       </c>
@@ -12128,7 +12175,7 @@
       <c r="M19" s="13"/>
       <c r="N19" s="14"/>
     </row>
-    <row r="20" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" s="15" customFormat="1" ht="15">
       <c r="A20" s="10" t="s">
         <v>58</v>
       </c>
@@ -12162,7 +12209,7 @@
       <c r="M20" s="13"/>
       <c r="N20" s="14"/>
     </row>
-    <row r="21" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" s="15" customFormat="1" ht="15">
       <c r="A21" s="10" t="s">
         <v>61</v>
       </c>
@@ -12196,7 +12243,7 @@
       <c r="M21" s="13"/>
       <c r="N21" s="14"/>
     </row>
-    <row r="22" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" s="15" customFormat="1" ht="15">
       <c r="A22" s="10" t="s">
         <v>64</v>
       </c>
@@ -12230,7 +12277,7 @@
       <c r="M22" s="13"/>
       <c r="N22" s="14"/>
     </row>
-    <row r="23" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" s="15" customFormat="1" ht="15">
       <c r="A23" s="10" t="s">
         <v>67</v>
       </c>
@@ -12264,7 +12311,7 @@
       <c r="M23" s="13"/>
       <c r="N23" s="14"/>
     </row>
-    <row r="24" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" s="15" customFormat="1" ht="15">
       <c r="A24" s="10" t="s">
         <v>70</v>
       </c>
@@ -12298,7 +12345,7 @@
       <c r="M24" s="13"/>
       <c r="N24" s="14"/>
     </row>
-    <row r="25" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" s="15" customFormat="1" ht="15">
       <c r="A25" s="10" t="s">
         <v>73</v>
       </c>
@@ -12332,7 +12379,7 @@
       <c r="M25" s="13"/>
       <c r="N25" s="14"/>
     </row>
-    <row r="26" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" s="15" customFormat="1" ht="15">
       <c r="A26" s="10" t="s">
         <v>76</v>
       </c>
@@ -12366,7 +12413,7 @@
       <c r="M26" s="13"/>
       <c r="N26" s="14"/>
     </row>
-    <row r="27" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" s="15" customFormat="1" ht="15">
       <c r="A27" s="10" t="s">
         <v>79</v>
       </c>
@@ -12400,7 +12447,7 @@
       <c r="M27" s="13"/>
       <c r="N27" s="14"/>
     </row>
-    <row r="28" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" s="15" customFormat="1" ht="15">
       <c r="A28" s="10" t="s">
         <v>82</v>
       </c>
@@ -12434,7 +12481,7 @@
       <c r="M28" s="13"/>
       <c r="N28" s="14"/>
     </row>
-    <row r="29" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" s="15" customFormat="1" ht="15">
       <c r="A29" s="10" t="s">
         <v>85</v>
       </c>
@@ -12468,7 +12515,7 @@
       <c r="M29" s="13"/>
       <c r="N29" s="14"/>
     </row>
-    <row r="30" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" s="15" customFormat="1" ht="15">
       <c r="A30" s="10" t="s">
         <v>88</v>
       </c>
@@ -12502,7 +12549,7 @@
       <c r="M30" s="13"/>
       <c r="N30" s="14"/>
     </row>
-    <row r="31" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" s="15" customFormat="1" ht="15">
       <c r="A31" s="10" t="s">
         <v>91</v>
       </c>
@@ -12536,7 +12583,7 @@
       <c r="M31" s="13"/>
       <c r="N31" s="14"/>
     </row>
-    <row r="32" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" s="15" customFormat="1" ht="15">
       <c r="A32" s="10" t="s">
         <v>94</v>
       </c>
@@ -12570,105 +12617,143 @@
       <c r="M32" s="13"/>
       <c r="N32" s="14"/>
     </row>
-    <row r="33" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="21" t="s">
+    <row r="33" spans="1:14" s="15" customFormat="1" ht="15">
+      <c r="A33" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20" t="s">
+      <c r="D33" s="10"/>
+      <c r="E33" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="20" t="s">
+      <c r="F33" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20" t="s">
+      <c r="H33" s="10"/>
+      <c r="I33" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J33" s="20" t="s">
+      <c r="J33" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K33" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
+      <c r="K33" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
       <c r="N33" s="14"/>
     </row>
-    <row r="34" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="21" t="s">
+    <row r="34" spans="1:14" s="15" customFormat="1" ht="15">
+      <c r="A34" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20" t="s">
+      <c r="D34" s="10"/>
+      <c r="E34" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="20" t="s">
+      <c r="F34" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20" t="s">
+      <c r="H34" s="10"/>
+      <c r="I34" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J34" s="20" t="s">
+      <c r="J34" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K34" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
+      <c r="K34" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
       <c r="N34" s="14"/>
     </row>
-    <row r="35" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
+    <row r="35" spans="1:14" s="15" customFormat="1" ht="15">
+      <c r="A35" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="14"/>
     </row>
-    <row r="36" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
+    <row r="36" spans="1:14" s="15" customFormat="1" ht="15">
+      <c r="A36" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="14"/>
     </row>
-    <row r="37" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" s="15" customFormat="1" ht="15">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="11"/>
@@ -12683,7 +12768,7 @@
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
     </row>
-    <row r="38" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" s="15" customFormat="1" ht="15">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="11"/>
@@ -12698,7 +12783,7 @@
       <c r="L38" s="13"/>
       <c r="M38" s="13"/>
     </row>
-    <row r="39" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" s="15" customFormat="1" ht="15">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="11"/>
@@ -12713,7 +12798,7 @@
       <c r="L39" s="13"/>
       <c r="M39" s="13"/>
     </row>
-    <row r="40" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" s="15" customFormat="1" ht="15">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="11"/>
@@ -12728,7 +12813,7 @@
       <c r="L40" s="13"/>
       <c r="M40" s="13"/>
     </row>
-    <row r="41" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" s="15" customFormat="1" ht="15">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="11"/>
@@ -12743,7 +12828,7 @@
       <c r="L41" s="13"/>
       <c r="M41" s="13"/>
     </row>
-    <row r="42" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" s="15" customFormat="1" ht="15">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="11"/>
@@ -12758,7 +12843,7 @@
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
     </row>
-    <row r="43" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" s="15" customFormat="1" ht="15">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="11"/>
@@ -12773,7 +12858,7 @@
       <c r="L43" s="13"/>
       <c r="M43" s="13"/>
     </row>
-    <row r="44" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" s="15" customFormat="1" ht="15">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="11"/>
@@ -12784,13 +12869,43 @@
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
+      <c r="K44" s="18"/>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
     </row>
-    <row r="46" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A46" s="102" t="s">
-        <v>125</v>
+    <row r="45" spans="1:14" s="15" customFormat="1" ht="15">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+    </row>
+    <row r="46" spans="1:14" s="15" customFormat="1" ht="15">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+    </row>
+    <row r="48" spans="1:14" ht="15">
+      <c r="A48" s="46" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
